--- a/BackTest/2019-10-29 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-29 BackTest HDAC.xlsx
@@ -801,17 +801,13 @@
         <v>34.33499999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -840,22 +836,14 @@
         <v>34.33</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -883,22 +871,14 @@
         <v>34.325</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -926,17 +906,13 @@
         <v>34.31500000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -965,22 +941,14 @@
         <v>34.30000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1008,22 +976,14 @@
         <v>34.28500000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1051,17 +1011,13 @@
         <v>34.27500000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1090,22 +1046,14 @@
         <v>34.26500000000002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1081,14 @@
         <v>34.25500000000002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1176,22 +1116,14 @@
         <v>34.24500000000003</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1219,22 +1151,14 @@
         <v>34.23000000000003</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1262,22 +1186,14 @@
         <v>34.22000000000003</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1305,22 +1221,14 @@
         <v>34.20500000000003</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1348,22 +1256,14 @@
         <v>34.19500000000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1391,22 +1291,14 @@
         <v>34.19000000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1434,22 +1326,14 @@
         <v>34.18500000000004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1477,22 +1361,14 @@
         <v>34.18500000000004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1531,11 +1407,7 @@
       <c r="K29" t="n">
         <v>34.2</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1576,7 +1448,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1612,14 +1484,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K31" t="n">
         <v>34.2</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1655,16 +1527,12 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="K32" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>34.5</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1698,14 +1566,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="K33" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1744,7 +1612,7 @@
         <v>34.4</v>
       </c>
       <c r="K34" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1778,14 +1646,16 @@
         <v>34.22000000000003</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K35" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1819,14 +1689,16 @@
         <v>34.23000000000003</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K36" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1866,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K37" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1903,16 +1775,14 @@
         <v>34.24500000000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1946,16 +1816,14 @@
         <v>34.24500000000002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1989,16 +1857,14 @@
         <v>34.24500000000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2032,16 +1898,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2075,16 +1939,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2118,16 +1980,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2161,16 +2021,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2204,16 +2062,14 @@
         <v>34.25500000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2247,16 +2103,14 @@
         <v>34.25500000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2290,16 +2144,14 @@
         <v>34.25500000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2333,16 +2185,14 @@
         <v>34.25500000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2382,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="K49" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2419,16 +2269,14 @@
         <v>34.25500000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2462,16 +2310,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2505,16 +2351,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2548,16 +2392,14 @@
         <v>34.24500000000002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2591,16 +2433,14 @@
         <v>34.24500000000002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2634,16 +2474,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2677,16 +2515,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2720,16 +2556,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2763,16 +2597,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2813,7 +2645,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2854,7 +2686,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2895,7 +2727,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2936,7 +2768,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2977,7 +2809,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3018,7 +2850,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3059,7 +2891,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3100,7 +2932,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3141,7 +2973,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3182,7 +3014,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3216,16 +3048,14 @@
         <v>34.28499999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3259,16 +3089,14 @@
         <v>34.28999999999998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3309,7 +3137,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3350,7 +3178,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3391,7 +3219,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3432,7 +3260,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3473,7 +3301,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3514,7 +3342,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3548,16 +3376,14 @@
         <v>34.27999999999998</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3591,16 +3417,14 @@
         <v>34.27499999999998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3634,16 +3458,14 @@
         <v>34.26999999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3677,16 +3499,14 @@
         <v>34.26499999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3720,16 +3540,14 @@
         <v>34.26</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3763,16 +3581,14 @@
         <v>34.255</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3806,16 +3622,14 @@
         <v>34.25000000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3849,16 +3663,14 @@
         <v>34.24500000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3892,16 +3704,14 @@
         <v>34.24000000000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3935,16 +3745,14 @@
         <v>34.23500000000002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3978,16 +3786,14 @@
         <v>34.23000000000003</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4021,16 +3827,14 @@
         <v>34.23000000000003</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4064,16 +3868,14 @@
         <v>34.23500000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4107,16 +3909,14 @@
         <v>34.24000000000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4150,16 +3950,14 @@
         <v>34.24000000000002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4193,16 +3991,14 @@
         <v>34.24000000000002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4236,16 +4032,14 @@
         <v>34.24500000000002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4286,7 +4080,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4327,7 +4121,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4368,7 +4162,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4409,7 +4203,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4450,7 +4244,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4491,7 +4285,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4532,7 +4326,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4573,7 +4367,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4614,7 +4408,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4651,19 +4445,19 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1.000847953216374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4692,11 +4486,17 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4730,8 +4530,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4765,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4800,8 +4612,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4835,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4870,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4905,8 +4735,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4940,8 +4776,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5010,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5045,8 +4899,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5080,8 +4940,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5115,8 +4981,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5150,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5063,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5220,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5255,8 +5145,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5290,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5325,8 +5227,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5360,8 +5268,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5395,8 +5309,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5430,8 +5350,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5465,8 +5391,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5500,8 +5432,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5535,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5570,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +5555,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5640,8 +5596,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5675,8 +5637,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5707,13 +5675,19 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M133" t="n">
-        <v>1</v>
+        <v>0.9921014492753623</v>
       </c>
     </row>
     <row r="134">
@@ -7317,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -7352,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-29 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C2" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D2" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>25553.1403</v>
       </c>
       <c r="G2" t="n">
-        <v>34.38999999999999</v>
+        <v>34.31833333333337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C3" t="n">
         <v>34.5</v>
@@ -477,13 +477,13 @@
         <v>34.5</v>
       </c>
       <c r="E3" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F3" t="n">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>34.39999999999998</v>
+        <v>34.3216666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C4" t="n">
         <v>34.5</v>
@@ -512,13 +512,13 @@
         <v>34.5</v>
       </c>
       <c r="E4" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="G4" t="n">
-        <v>34.40999999999998</v>
+        <v>34.32500000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C5" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D5" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E5" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>34.41499999999998</v>
+        <v>34.32833333333336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E6" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F6" t="n">
-        <v>49755.3307</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>34.41499999999998</v>
+        <v>34.33000000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>34.3</v>
       </c>
       <c r="C7" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D7" t="n">
         <v>34.3</v>
       </c>
       <c r="E7" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>49755.3307</v>
       </c>
       <c r="G7" t="n">
-        <v>34.40499999999999</v>
+        <v>34.33333333333336</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C8" t="n">
         <v>34.2</v>
       </c>
       <c r="D8" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E8" t="n">
         <v>34.2</v>
       </c>
       <c r="F8" t="n">
-        <v>668</v>
+        <v>2000</v>
       </c>
       <c r="G8" t="n">
-        <v>34.39999999999999</v>
+        <v>34.33500000000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>34.2</v>
       </c>
       <c r="F9" t="n">
-        <v>220</v>
+        <v>668</v>
       </c>
       <c r="G9" t="n">
-        <v>34.38499999999999</v>
+        <v>34.33833333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>34.2</v>
       </c>
       <c r="F10" t="n">
-        <v>38.6669</v>
+        <v>220</v>
       </c>
       <c r="G10" t="n">
-        <v>34.36499999999999</v>
+        <v>34.34166666666669</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>34.2</v>
       </c>
       <c r="F11" t="n">
-        <v>50.6639</v>
+        <v>38.6669</v>
       </c>
       <c r="G11" t="n">
-        <v>34.34499999999999</v>
+        <v>34.34833333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>34.2</v>
       </c>
       <c r="F12" t="n">
-        <v>18.9963</v>
+        <v>50.6639</v>
       </c>
       <c r="G12" t="n">
-        <v>34.33499999999999</v>
+        <v>34.35000000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>34.2</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>18.9963</v>
       </c>
       <c r="G13" t="n">
-        <v>34.33</v>
+        <v>34.35166666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>34.2</v>
       </c>
       <c r="F14" t="n">
-        <v>41557.9453</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="n">
-        <v>34.325</v>
+        <v>34.35333333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D15" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E15" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F15" t="n">
-        <v>37.9996</v>
+        <v>41557.9453</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31500000000001</v>
+        <v>34.35166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>34.1</v>
       </c>
       <c r="F16" t="n">
-        <v>32.7726</v>
+        <v>37.9996</v>
       </c>
       <c r="G16" t="n">
-        <v>34.30000000000001</v>
+        <v>34.35000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,19 +970,23 @@
         <v>34.1</v>
       </c>
       <c r="F17" t="n">
-        <v>31.9393</v>
+        <v>32.7726</v>
       </c>
       <c r="G17" t="n">
-        <v>34.28500000000001</v>
+        <v>34.34666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -993,32 +997,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C18" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D18" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E18" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F18" t="n">
-        <v>8470.700500000001</v>
+        <v>31.9393</v>
       </c>
       <c r="G18" t="n">
-        <v>34.27500000000002</v>
+        <v>34.34500000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1040,20 +1052,28 @@
         <v>34.2</v>
       </c>
       <c r="F19" t="n">
-        <v>26.265</v>
+        <v>8470.700500000001</v>
       </c>
       <c r="G19" t="n">
-        <v>34.26500000000002</v>
+        <v>34.34333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,10 +1095,10 @@
         <v>34.2</v>
       </c>
       <c r="F20" t="n">
-        <v>14.7963</v>
+        <v>26.265</v>
       </c>
       <c r="G20" t="n">
-        <v>34.25500000000002</v>
+        <v>34.34166666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1104,16 +1124,16 @@
         <v>34.2</v>
       </c>
       <c r="D21" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="E21" t="n">
         <v>34.2</v>
       </c>
       <c r="F21" t="n">
-        <v>723.0554</v>
+        <v>14.7963</v>
       </c>
       <c r="G21" t="n">
-        <v>34.24500000000003</v>
+        <v>34.34166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1139,16 +1159,16 @@
         <v>34.2</v>
       </c>
       <c r="D22" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E22" t="n">
         <v>34.2</v>
       </c>
       <c r="F22" t="n">
-        <v>27</v>
+        <v>723.0554</v>
       </c>
       <c r="G22" t="n">
-        <v>34.23000000000003</v>
+        <v>34.33999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1200,10 @@
         <v>34.2</v>
       </c>
       <c r="F23" t="n">
-        <v>15.9963</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>34.22000000000003</v>
+        <v>34.33999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1235,10 @@
         <v>34.2</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>15.9963</v>
       </c>
       <c r="G24" t="n">
-        <v>34.20500000000003</v>
+        <v>34.33833333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1270,10 @@
         <v>34.2</v>
       </c>
       <c r="F25" t="n">
-        <v>39.0469</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>34.19500000000004</v>
+        <v>34.33333333333331</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1305,10 @@
         <v>34.2</v>
       </c>
       <c r="F26" t="n">
-        <v>29.459</v>
+        <v>39.0469</v>
       </c>
       <c r="G26" t="n">
-        <v>34.19000000000004</v>
+        <v>34.32499999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1340,10 @@
         <v>34.2</v>
       </c>
       <c r="F27" t="n">
-        <v>23.3678</v>
+        <v>29.459</v>
       </c>
       <c r="G27" t="n">
-        <v>34.18500000000004</v>
+        <v>34.31666666666664</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1375,10 @@
         <v>34.2</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>23.3678</v>
       </c>
       <c r="G28" t="n">
-        <v>34.18500000000004</v>
+        <v>34.31833333333331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,23 +1410,19 @@
         <v>34.2</v>
       </c>
       <c r="F29" t="n">
-        <v>14.693</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>34.18500000000004</v>
+        <v>34.30999999999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1429,28 +1445,20 @@
         <v>34.2</v>
       </c>
       <c r="F30" t="n">
-        <v>12.63</v>
+        <v>14.693</v>
       </c>
       <c r="G30" t="n">
-        <v>34.18500000000004</v>
+        <v>34.3083333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1460,40 +1468,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C31" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D31" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E31" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F31" t="n">
-        <v>6046.31233333</v>
+        <v>12.63</v>
       </c>
       <c r="G31" t="n">
-        <v>34.19000000000004</v>
+        <v>34.30666666666663</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1506,32 +1506,28 @@
         <v>34.3</v>
       </c>
       <c r="C32" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="D32" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E32" t="n">
         <v>34.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1325</v>
+        <v>6046.31233333</v>
       </c>
       <c r="G32" t="n">
-        <v>34.19500000000004</v>
+        <v>34.30999999999996</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
@@ -1542,40 +1538,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C33" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="D33" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E33" t="n">
         <v>34.3</v>
       </c>
       <c r="F33" t="n">
-        <v>247.135</v>
+        <v>1325</v>
       </c>
       <c r="G33" t="n">
-        <v>34.20500000000003</v>
+        <v>34.30999999999996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1588,37 +1576,29 @@
         <v>34.4</v>
       </c>
       <c r="C34" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D34" t="n">
         <v>34.4</v>
       </c>
       <c r="E34" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="F34" t="n">
-        <v>45519.1971</v>
+        <v>247.135</v>
       </c>
       <c r="G34" t="n">
-        <v>34.21500000000003</v>
+        <v>34.30833333333329</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1628,40 +1608,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="C35" t="n">
         <v>34.2</v>
       </c>
       <c r="D35" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E35" t="n">
         <v>34.2</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>45519.1971</v>
       </c>
       <c r="G35" t="n">
-        <v>34.22000000000003</v>
+        <v>34.30666666666662</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1671,40 +1643,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C36" t="n">
         <v>34.2</v>
       </c>
       <c r="D36" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="E36" t="n">
         <v>34.2</v>
       </c>
       <c r="F36" t="n">
-        <v>29.669</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>34.23000000000003</v>
+        <v>34.30499999999995</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1717,7 +1681,7 @@
         <v>34.3</v>
       </c>
       <c r="C37" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="D37" t="n">
         <v>34.3</v>
@@ -1726,28 +1690,20 @@
         <v>34.2</v>
       </c>
       <c r="F37" t="n">
-        <v>1139.5821</v>
+        <v>29.669</v>
       </c>
       <c r="G37" t="n">
-        <v>34.24000000000002</v>
+        <v>34.30333333333328</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1760,7 +1716,7 @@
         <v>34.3</v>
       </c>
       <c r="C38" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D38" t="n">
         <v>34.3</v>
@@ -1769,10 +1725,10 @@
         <v>34.2</v>
       </c>
       <c r="F38" t="n">
-        <v>591.4999</v>
+        <v>1139.5821</v>
       </c>
       <c r="G38" t="n">
-        <v>34.24500000000002</v>
+        <v>34.30166666666661</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1781,14 +1737,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1798,10 +1748,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C39" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="D39" t="n">
         <v>34.3</v>
@@ -1810,10 +1760,10 @@
         <v>34.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1514.9963</v>
+        <v>591.4999</v>
       </c>
       <c r="G39" t="n">
-        <v>34.24500000000002</v>
+        <v>34.29833333333328</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1822,14 +1772,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1842,7 +1786,7 @@
         <v>34.2</v>
       </c>
       <c r="C40" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D40" t="n">
         <v>34.3</v>
@@ -1851,10 +1795,10 @@
         <v>34.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2545.4</v>
+        <v>1514.9963</v>
       </c>
       <c r="G40" t="n">
-        <v>34.24500000000002</v>
+        <v>34.29833333333328</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1863,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1880,7 +1818,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C41" t="n">
         <v>34.2</v>
@@ -1892,10 +1830,10 @@
         <v>34.2</v>
       </c>
       <c r="F41" t="n">
-        <v>388.6273</v>
+        <v>2545.4</v>
       </c>
       <c r="G41" t="n">
-        <v>34.25000000000001</v>
+        <v>34.29833333333328</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1904,14 +1842,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1921,7 +1853,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C42" t="n">
         <v>34.2</v>
@@ -1933,10 +1865,10 @@
         <v>34.2</v>
       </c>
       <c r="F42" t="n">
-        <v>51439.3898</v>
+        <v>388.6273</v>
       </c>
       <c r="G42" t="n">
-        <v>34.25000000000001</v>
+        <v>34.2966666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1945,14 +1877,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1968,16 +1894,16 @@
         <v>34.2</v>
       </c>
       <c r="D43" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E43" t="n">
         <v>34.2</v>
       </c>
       <c r="F43" t="n">
-        <v>79.39149999999999</v>
+        <v>51439.3898</v>
       </c>
       <c r="G43" t="n">
-        <v>34.25000000000001</v>
+        <v>34.29499999999993</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1986,14 +1912,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2009,16 +1929,16 @@
         <v>34.2</v>
       </c>
       <c r="D44" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="E44" t="n">
         <v>34.2</v>
       </c>
       <c r="F44" t="n">
-        <v>138.807</v>
+        <v>79.39149999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>34.25000000000001</v>
+        <v>34.2966666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2027,14 +1947,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2044,22 +1958,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C45" t="n">
         <v>34.2</v>
       </c>
       <c r="D45" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E45" t="n">
         <v>34.2</v>
       </c>
       <c r="F45" t="n">
-        <v>656.0948</v>
+        <v>138.807</v>
       </c>
       <c r="G45" t="n">
-        <v>34.25500000000001</v>
+        <v>34.29499999999992</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2068,14 +1982,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2085,22 +1993,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C46" t="n">
         <v>34.2</v>
       </c>
       <c r="D46" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E46" t="n">
         <v>34.2</v>
       </c>
       <c r="F46" t="n">
-        <v>70.9909</v>
+        <v>656.0948</v>
       </c>
       <c r="G46" t="n">
-        <v>34.25500000000001</v>
+        <v>34.29333333333325</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2109,14 +2017,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2138,10 +2040,10 @@
         <v>34.2</v>
       </c>
       <c r="F47" t="n">
-        <v>87.3519</v>
+        <v>70.9909</v>
       </c>
       <c r="G47" t="n">
-        <v>34.25500000000001</v>
+        <v>34.28833333333325</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2150,14 +2052,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2170,19 +2066,19 @@
         <v>34.2</v>
       </c>
       <c r="C48" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="D48" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="E48" t="n">
         <v>34.2</v>
       </c>
       <c r="F48" t="n">
-        <v>171.5309</v>
+        <v>87.3519</v>
       </c>
       <c r="G48" t="n">
-        <v>34.25500000000001</v>
+        <v>34.28333333333324</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2191,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2211,37 +2101,29 @@
         <v>34.2</v>
       </c>
       <c r="C49" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D49" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E49" t="n">
         <v>34.2</v>
       </c>
       <c r="F49" t="n">
-        <v>90.2754</v>
+        <v>171.5309</v>
       </c>
       <c r="G49" t="n">
-        <v>34.25500000000001</v>
+        <v>34.28333333333324</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2263,10 +2145,10 @@
         <v>34.2</v>
       </c>
       <c r="F50" t="n">
-        <v>79.55800000000001</v>
+        <v>90.2754</v>
       </c>
       <c r="G50" t="n">
-        <v>34.25500000000001</v>
+        <v>34.27833333333324</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2275,14 +2157,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2304,10 +2180,10 @@
         <v>34.2</v>
       </c>
       <c r="F51" t="n">
-        <v>41.7032</v>
+        <v>79.55800000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>34.25000000000001</v>
+        <v>34.27166666666657</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2316,14 +2192,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2333,22 +2203,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C52" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D52" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E52" t="n">
         <v>34.2</v>
       </c>
       <c r="F52" t="n">
-        <v>113.4529</v>
+        <v>41.7032</v>
       </c>
       <c r="G52" t="n">
-        <v>34.25000000000001</v>
+        <v>34.2649999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2357,14 +2227,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2377,19 +2241,19 @@
         <v>34.3</v>
       </c>
       <c r="C53" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="D53" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E53" t="n">
         <v>34.2</v>
       </c>
       <c r="F53" t="n">
-        <v>723.452</v>
+        <v>113.4529</v>
       </c>
       <c r="G53" t="n">
-        <v>34.24500000000002</v>
+        <v>34.26666666666657</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2398,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2415,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C54" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="D54" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E54" t="n">
         <v>34.2</v>
       </c>
       <c r="F54" t="n">
-        <v>864.7169</v>
+        <v>723.452</v>
       </c>
       <c r="G54" t="n">
-        <v>34.24500000000002</v>
+        <v>34.26499999999989</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2439,14 +2297,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C55" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D55" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E55" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F55" t="n">
-        <v>13083.458</v>
+        <v>864.7169</v>
       </c>
       <c r="G55" t="n">
-        <v>34.25000000000001</v>
+        <v>34.26666666666656</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2480,14 +2332,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2509,10 +2355,10 @@
         <v>34.3</v>
       </c>
       <c r="F56" t="n">
-        <v>152.3959</v>
+        <v>13083.458</v>
       </c>
       <c r="G56" t="n">
-        <v>34.25000000000001</v>
+        <v>34.26666666666656</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2521,14 +2367,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2544,16 +2384,16 @@
         <v>34.3</v>
       </c>
       <c r="D57" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E57" t="n">
         <v>34.3</v>
       </c>
       <c r="F57" t="n">
-        <v>1532.1195</v>
+        <v>152.3959</v>
       </c>
       <c r="G57" t="n">
-        <v>34.25000000000001</v>
+        <v>34.26166666666656</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2562,14 +2402,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2585,16 +2419,16 @@
         <v>34.3</v>
       </c>
       <c r="D58" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E58" t="n">
         <v>34.3</v>
       </c>
       <c r="F58" t="n">
-        <v>185.1459</v>
+        <v>1532.1195</v>
       </c>
       <c r="G58" t="n">
-        <v>34.25000000000001</v>
+        <v>34.25666666666657</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2603,14 +2437,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2632,10 +2460,10 @@
         <v>34.3</v>
       </c>
       <c r="F59" t="n">
-        <v>1321.6193</v>
+        <v>185.1459</v>
       </c>
       <c r="G59" t="n">
-        <v>34.25500000000001</v>
+        <v>34.2549999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2644,14 +2472,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2673,10 +2495,10 @@
         <v>34.3</v>
       </c>
       <c r="F60" t="n">
-        <v>195.201</v>
+        <v>1321.6193</v>
       </c>
       <c r="G60" t="n">
-        <v>34.26000000000001</v>
+        <v>34.25333333333324</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2685,14 +2507,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2714,10 +2530,10 @@
         <v>34.3</v>
       </c>
       <c r="F61" t="n">
-        <v>59.0354</v>
+        <v>195.201</v>
       </c>
       <c r="G61" t="n">
-        <v>34.26000000000001</v>
+        <v>34.25166666666657</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2726,14 +2542,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2565,10 @@
         <v>34.3</v>
       </c>
       <c r="F62" t="n">
-        <v>128.2813</v>
+        <v>59.0354</v>
       </c>
       <c r="G62" t="n">
-        <v>34.265</v>
+        <v>34.24999999999991</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2767,14 +2577,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2796,10 +2600,10 @@
         <v>34.3</v>
       </c>
       <c r="F63" t="n">
-        <v>91.2816</v>
+        <v>128.2813</v>
       </c>
       <c r="G63" t="n">
-        <v>34.27</v>
+        <v>34.24666666666658</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2808,14 +2612,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2837,10 +2635,10 @@
         <v>34.3</v>
       </c>
       <c r="F64" t="n">
-        <v>219.5663</v>
+        <v>91.2816</v>
       </c>
       <c r="G64" t="n">
-        <v>34.27499999999999</v>
+        <v>34.24333333333325</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2849,14 +2647,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2878,10 +2670,10 @@
         <v>34.3</v>
       </c>
       <c r="F65" t="n">
-        <v>14.5869</v>
+        <v>219.5663</v>
       </c>
       <c r="G65" t="n">
-        <v>34.27499999999999</v>
+        <v>34.23999999999992</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2890,14 +2682,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2919,10 +2705,10 @@
         <v>34.3</v>
       </c>
       <c r="F66" t="n">
-        <v>14.587</v>
+        <v>14.5869</v>
       </c>
       <c r="G66" t="n">
-        <v>34.27999999999999</v>
+        <v>34.23833333333325</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2931,14 +2717,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2951,19 +2731,19 @@
         <v>34.3</v>
       </c>
       <c r="C67" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D67" t="n">
         <v>34.3</v>
       </c>
       <c r="E67" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="F67" t="n">
-        <v>29946.1351</v>
+        <v>14.587</v>
       </c>
       <c r="G67" t="n">
-        <v>34.28499999999998</v>
+        <v>34.23833333333325</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2972,14 +2752,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2989,22 +2763,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C68" t="n">
         <v>34.2</v>
       </c>
       <c r="D68" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E68" t="n">
         <v>34.2</v>
       </c>
       <c r="F68" t="n">
-        <v>141.141</v>
+        <v>29946.1351</v>
       </c>
       <c r="G68" t="n">
-        <v>34.28499999999998</v>
+        <v>34.23833333333325</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3013,14 +2787,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3033,19 +2801,19 @@
         <v>34.2</v>
       </c>
       <c r="C69" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D69" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E69" t="n">
         <v>34.2</v>
       </c>
       <c r="F69" t="n">
-        <v>595.452</v>
+        <v>141.141</v>
       </c>
       <c r="G69" t="n">
-        <v>34.28499999999998</v>
+        <v>34.23833333333325</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3054,14 +2822,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3071,22 +2833,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C70" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="D70" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E70" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F70" t="n">
-        <v>417.8203</v>
+        <v>595.452</v>
       </c>
       <c r="G70" t="n">
-        <v>34.28999999999998</v>
+        <v>34.24333333333325</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3095,14 +2857,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3124,10 +2880,10 @@
         <v>34.3</v>
       </c>
       <c r="F71" t="n">
-        <v>867.859</v>
+        <v>417.8203</v>
       </c>
       <c r="G71" t="n">
-        <v>34.29499999999997</v>
+        <v>34.24499999999993</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3136,14 +2892,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3165,10 +2915,10 @@
         <v>34.3</v>
       </c>
       <c r="F72" t="n">
-        <v>622.5575</v>
+        <v>867.859</v>
       </c>
       <c r="G72" t="n">
-        <v>34.29499999999997</v>
+        <v>34.2466666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3177,14 +2927,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3206,10 +2950,10 @@
         <v>34.3</v>
       </c>
       <c r="F73" t="n">
-        <v>1248.2735</v>
+        <v>622.5575</v>
       </c>
       <c r="G73" t="n">
-        <v>34.29499999999997</v>
+        <v>34.24833333333327</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3218,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3247,10 +2985,10 @@
         <v>34.3</v>
       </c>
       <c r="F74" t="n">
-        <v>40176.4897</v>
+        <v>1248.2735</v>
       </c>
       <c r="G74" t="n">
-        <v>34.28999999999997</v>
+        <v>34.24999999999995</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3259,14 +2997,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3279,19 +3011,19 @@
         <v>34.3</v>
       </c>
       <c r="C75" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D75" t="n">
         <v>34.3</v>
       </c>
       <c r="E75" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="F75" t="n">
-        <v>714.895</v>
+        <v>40176.4897</v>
       </c>
       <c r="G75" t="n">
-        <v>34.28999999999997</v>
+        <v>34.25166666666662</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3300,14 +3032,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3317,22 +3043,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C76" t="n">
         <v>34.2</v>
       </c>
       <c r="D76" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E76" t="n">
         <v>34.2</v>
       </c>
       <c r="F76" t="n">
-        <v>426.2875</v>
+        <v>714.895</v>
       </c>
       <c r="G76" t="n">
-        <v>34.28499999999998</v>
+        <v>34.25333333333329</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3341,14 +3067,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3370,10 +3090,10 @@
         <v>34.2</v>
       </c>
       <c r="F77" t="n">
-        <v>62.819</v>
+        <v>426.2875</v>
       </c>
       <c r="G77" t="n">
-        <v>34.27999999999998</v>
+        <v>34.25499999999995</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3382,14 +3102,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3411,10 +3125,10 @@
         <v>34.2</v>
       </c>
       <c r="F78" t="n">
-        <v>16.9663</v>
+        <v>62.819</v>
       </c>
       <c r="G78" t="n">
-        <v>34.27499999999998</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3423,14 +3137,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3452,10 +3160,10 @@
         <v>34.2</v>
       </c>
       <c r="F79" t="n">
-        <v>11798.1276</v>
+        <v>16.9663</v>
       </c>
       <c r="G79" t="n">
-        <v>34.26999999999999</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3464,14 +3172,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3493,10 +3195,10 @@
         <v>34.2</v>
       </c>
       <c r="F80" t="n">
-        <v>27.5221</v>
+        <v>11798.1276</v>
       </c>
       <c r="G80" t="n">
-        <v>34.26499999999999</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3505,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3534,10 +3230,10 @@
         <v>34.2</v>
       </c>
       <c r="F81" t="n">
-        <v>138.8519</v>
+        <v>27.5221</v>
       </c>
       <c r="G81" t="n">
-        <v>34.26</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3546,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3575,10 +3265,10 @@
         <v>34.2</v>
       </c>
       <c r="F82" t="n">
-        <v>68.03</v>
+        <v>138.8519</v>
       </c>
       <c r="G82" t="n">
-        <v>34.255</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3587,14 +3277,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3616,10 +3300,10 @@
         <v>34.2</v>
       </c>
       <c r="F83" t="n">
-        <v>45.6258</v>
+        <v>68.03</v>
       </c>
       <c r="G83" t="n">
-        <v>34.25000000000001</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3628,14 +3312,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3657,10 +3335,10 @@
         <v>34.2</v>
       </c>
       <c r="F84" t="n">
-        <v>89.64100000000001</v>
+        <v>45.6258</v>
       </c>
       <c r="G84" t="n">
-        <v>34.24500000000001</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3669,14 +3347,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3698,10 +3370,10 @@
         <v>34.2</v>
       </c>
       <c r="F85" t="n">
-        <v>28.267</v>
+        <v>89.64100000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>34.24000000000002</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3710,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3739,10 +3405,10 @@
         <v>34.2</v>
       </c>
       <c r="F86" t="n">
-        <v>13.586</v>
+        <v>28.267</v>
       </c>
       <c r="G86" t="n">
-        <v>34.23500000000002</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3751,14 +3417,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3780,10 +3440,10 @@
         <v>34.2</v>
       </c>
       <c r="F87" t="n">
-        <v>25.6915</v>
+        <v>13.586</v>
       </c>
       <c r="G87" t="n">
-        <v>34.23000000000003</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3792,14 +3452,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3821,10 +3475,10 @@
         <v>34.2</v>
       </c>
       <c r="F88" t="n">
-        <v>60.863</v>
+        <v>25.6915</v>
       </c>
       <c r="G88" t="n">
-        <v>34.23000000000003</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3833,14 +3487,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3850,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C89" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="D89" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="E89" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F89" t="n">
-        <v>10745.6676</v>
+        <v>60.863</v>
       </c>
       <c r="G89" t="n">
-        <v>34.23500000000002</v>
+        <v>34.25666666666662</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3874,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3891,7 +3533,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C90" t="n">
         <v>34.4</v>
@@ -3900,13 +3542,13 @@
         <v>34.4</v>
       </c>
       <c r="E90" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F90" t="n">
-        <v>18424.0998</v>
+        <v>10745.6676</v>
       </c>
       <c r="G90" t="n">
-        <v>34.24000000000002</v>
+        <v>34.25999999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3915,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3932,22 +3568,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C91" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D91" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E91" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F91" t="n">
-        <v>42.669</v>
+        <v>18424.0998</v>
       </c>
       <c r="G91" t="n">
-        <v>34.24000000000002</v>
+        <v>34.26333333333329</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3956,14 +3592,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3976,19 +3606,19 @@
         <v>34.3</v>
       </c>
       <c r="C92" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="D92" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E92" t="n">
         <v>34.3</v>
       </c>
       <c r="F92" t="n">
-        <v>51593.9235</v>
+        <v>42.669</v>
       </c>
       <c r="G92" t="n">
-        <v>34.24000000000002</v>
+        <v>34.25999999999996</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3997,14 +3627,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +3638,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C93" t="n">
         <v>34.4</v>
       </c>
       <c r="D93" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E93" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3456.2292</v>
+        <v>51593.9235</v>
       </c>
       <c r="G93" t="n">
-        <v>34.24500000000002</v>
+        <v>34.26166666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4038,14 +3662,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4055,22 +3673,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C94" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D94" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E94" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F94" t="n">
-        <v>6672.6766</v>
+        <v>3456.2292</v>
       </c>
       <c r="G94" t="n">
-        <v>34.24500000000002</v>
+        <v>34.26166666666663</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4079,14 +3697,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4108,10 +3720,10 @@
         <v>34.3</v>
       </c>
       <c r="F95" t="n">
-        <v>26.326</v>
+        <v>6672.6766</v>
       </c>
       <c r="G95" t="n">
-        <v>34.24500000000002</v>
+        <v>34.2633333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4120,14 +3732,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4137,22 +3743,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C96" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="D96" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E96" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1463.804</v>
+        <v>26.326</v>
       </c>
       <c r="G96" t="n">
-        <v>34.25500000000002</v>
+        <v>34.26499999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4161,14 +3767,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +3790,10 @@
         <v>34.4</v>
       </c>
       <c r="F97" t="n">
-        <v>301.151</v>
+        <v>1463.804</v>
       </c>
       <c r="G97" t="n">
-        <v>34.26500000000001</v>
+        <v>34.26833333333331</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4202,14 +3802,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4222,19 +3816,19 @@
         <v>34.4</v>
       </c>
       <c r="C98" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D98" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E98" t="n">
         <v>34.4</v>
       </c>
       <c r="F98" t="n">
-        <v>78242.98646667</v>
+        <v>301.151</v>
       </c>
       <c r="G98" t="n">
-        <v>34.27500000000001</v>
+        <v>34.26999999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4243,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4260,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C99" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D99" t="n">
         <v>34.6</v>
       </c>
       <c r="E99" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F99" t="n">
-        <v>5955</v>
+        <v>78242.98646667</v>
       </c>
       <c r="G99" t="n">
-        <v>34.29500000000001</v>
+        <v>34.27666666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4284,14 +3872,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4301,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C100" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D100" t="n">
         <v>34.6</v>
       </c>
       <c r="E100" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F100" t="n">
-        <v>222.9</v>
+        <v>5955</v>
       </c>
       <c r="G100" t="n">
-        <v>34.31000000000001</v>
+        <v>34.27999999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4325,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4342,38 +3918,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C101" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D101" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E101" t="n">
         <v>34.4</v>
       </c>
       <c r="F101" t="n">
-        <v>1401.2294</v>
+        <v>222.9</v>
       </c>
       <c r="G101" t="n">
-        <v>34.32000000000001</v>
+        <v>34.28666666666664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4383,38 +3953,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C102" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D102" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E102" t="n">
         <v>34.4</v>
       </c>
       <c r="F102" t="n">
-        <v>539</v>
+        <v>1401.2294</v>
       </c>
       <c r="G102" t="n">
-        <v>34.34</v>
+        <v>34.29499999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4424,38 +3988,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="C103" t="n">
         <v>34.4</v>
       </c>
       <c r="D103" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E103" t="n">
         <v>34.4</v>
       </c>
       <c r="F103" t="n">
-        <v>3979.574</v>
+        <v>539</v>
       </c>
       <c r="G103" t="n">
-        <v>34.35</v>
+        <v>34.29833333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4477,10 +4035,10 @@
         <v>34.4</v>
       </c>
       <c r="F104" t="n">
-        <v>527.8061</v>
+        <v>3979.574</v>
       </c>
       <c r="G104" t="n">
-        <v>34.36</v>
+        <v>34.30166666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4489,14 +4047,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4518,26 +4070,20 @@
         <v>34.4</v>
       </c>
       <c r="F105" t="n">
-        <v>563.9548</v>
+        <v>527.8061</v>
       </c>
       <c r="G105" t="n">
-        <v>34.36999999999999</v>
+        <v>34.30499999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4559,10 +4105,10 @@
         <v>34.4</v>
       </c>
       <c r="F106" t="n">
-        <v>270.3737</v>
+        <v>563.9548</v>
       </c>
       <c r="G106" t="n">
-        <v>34.37999999999999</v>
+        <v>34.30833333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4571,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4600,10 +4140,10 @@
         <v>34.4</v>
       </c>
       <c r="F107" t="n">
-        <v>180.034</v>
+        <v>270.3737</v>
       </c>
       <c r="G107" t="n">
-        <v>34.38999999999999</v>
+        <v>34.31166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4612,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4641,10 +4175,10 @@
         <v>34.4</v>
       </c>
       <c r="F108" t="n">
-        <v>28956.9674</v>
+        <v>180.034</v>
       </c>
       <c r="G108" t="n">
-        <v>34.39999999999998</v>
+        <v>34.315</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4653,14 +4187,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4682,10 +4210,10 @@
         <v>34.4</v>
       </c>
       <c r="F109" t="n">
-        <v>55.923</v>
+        <v>28956.9674</v>
       </c>
       <c r="G109" t="n">
-        <v>34.40499999999999</v>
+        <v>34.31666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4694,14 +4222,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4723,10 +4245,10 @@
         <v>34.4</v>
       </c>
       <c r="F110" t="n">
-        <v>298.813</v>
+        <v>55.923</v>
       </c>
       <c r="G110" t="n">
-        <v>34.40499999999999</v>
+        <v>34.32000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4735,14 +4257,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4764,10 +4280,10 @@
         <v>34.4</v>
       </c>
       <c r="F111" t="n">
-        <v>67.26649999999999</v>
+        <v>298.813</v>
       </c>
       <c r="G111" t="n">
-        <v>34.40999999999998</v>
+        <v>34.32333333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4776,14 +4292,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4805,10 +4315,10 @@
         <v>34.4</v>
       </c>
       <c r="F112" t="n">
-        <v>128.3312</v>
+        <v>67.26649999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>34.41499999999998</v>
+        <v>34.32666666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4817,14 +4327,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4846,10 +4350,10 @@
         <v>34.4</v>
       </c>
       <c r="F113" t="n">
-        <v>390.388</v>
+        <v>128.3312</v>
       </c>
       <c r="G113" t="n">
-        <v>34.41499999999998</v>
+        <v>34.32500000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4858,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4887,10 +4385,10 @@
         <v>34.4</v>
       </c>
       <c r="F114" t="n">
-        <v>226.925</v>
+        <v>390.388</v>
       </c>
       <c r="G114" t="n">
-        <v>34.41999999999999</v>
+        <v>34.32833333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4899,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +4408,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C115" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D115" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="E115" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F115" t="n">
-        <v>8666.311100000001</v>
+        <v>226.925</v>
       </c>
       <c r="G115" t="n">
-        <v>34.42999999999999</v>
+        <v>34.32833333333335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4940,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4957,22 +4443,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C116" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D116" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="E116" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F116" t="n">
-        <v>18.8285</v>
+        <v>8666.311100000001</v>
       </c>
       <c r="G116" t="n">
-        <v>34.42999999999999</v>
+        <v>34.33500000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4981,14 +4467,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5010,10 +4490,10 @@
         <v>34.4</v>
       </c>
       <c r="F117" t="n">
-        <v>12.369</v>
+        <v>18.8285</v>
       </c>
       <c r="G117" t="n">
-        <v>34.42999999999999</v>
+        <v>34.33666666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5022,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5051,10 +4525,10 @@
         <v>34.4</v>
       </c>
       <c r="F118" t="n">
-        <v>58.07</v>
+        <v>12.369</v>
       </c>
       <c r="G118" t="n">
-        <v>34.42999999999999</v>
+        <v>34.33833333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5063,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5092,10 +4560,10 @@
         <v>34.4</v>
       </c>
       <c r="F119" t="n">
-        <v>187.141</v>
+        <v>58.07</v>
       </c>
       <c r="G119" t="n">
-        <v>34.41999999999999</v>
+        <v>34.34000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5104,14 +4572,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5133,10 +4595,10 @@
         <v>34.4</v>
       </c>
       <c r="F120" t="n">
-        <v>41.832</v>
+        <v>187.141</v>
       </c>
       <c r="G120" t="n">
-        <v>34.41499999999998</v>
+        <v>34.34166666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5145,14 +4607,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5174,10 +4630,10 @@
         <v>34.4</v>
       </c>
       <c r="F121" t="n">
-        <v>49.2314</v>
+        <v>41.832</v>
       </c>
       <c r="G121" t="n">
-        <v>34.41499999999998</v>
+        <v>34.34333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5186,14 +4642,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5206,19 +4656,19 @@
         <v>34.4</v>
       </c>
       <c r="C122" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D122" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E122" t="n">
         <v>34.4</v>
       </c>
       <c r="F122" t="n">
-        <v>181.784</v>
+        <v>49.2314</v>
       </c>
       <c r="G122" t="n">
-        <v>34.40499999999999</v>
+        <v>34.34500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5227,14 +4677,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5247,19 +4691,19 @@
         <v>34.4</v>
       </c>
       <c r="C123" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D123" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E123" t="n">
         <v>34.4</v>
       </c>
       <c r="F123" t="n">
-        <v>307.4128</v>
+        <v>181.784</v>
       </c>
       <c r="G123" t="n">
-        <v>34.40499999999999</v>
+        <v>34.34833333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5268,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5297,10 +4735,10 @@
         <v>34.4</v>
       </c>
       <c r="F124" t="n">
-        <v>141.528</v>
+        <v>307.4128</v>
       </c>
       <c r="G124" t="n">
-        <v>34.40499999999999</v>
+        <v>34.35</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5309,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5338,10 +4770,10 @@
         <v>34.4</v>
       </c>
       <c r="F125" t="n">
-        <v>1152.653</v>
+        <v>141.528</v>
       </c>
       <c r="G125" t="n">
-        <v>34.40499999999999</v>
+        <v>34.35166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5350,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5379,10 +4805,10 @@
         <v>34.4</v>
       </c>
       <c r="F126" t="n">
-        <v>14.5236</v>
+        <v>1152.653</v>
       </c>
       <c r="G126" t="n">
-        <v>34.40499999999999</v>
+        <v>34.35333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5391,14 +4817,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5420,10 +4840,10 @@
         <v>34.4</v>
       </c>
       <c r="F127" t="n">
-        <v>145.2311</v>
+        <v>14.5236</v>
       </c>
       <c r="G127" t="n">
-        <v>34.40499999999999</v>
+        <v>34.355</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5432,14 +4852,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5461,10 +4875,10 @@
         <v>34.4</v>
       </c>
       <c r="F128" t="n">
-        <v>14.3697</v>
+        <v>145.2311</v>
       </c>
       <c r="G128" t="n">
-        <v>34.40499999999999</v>
+        <v>34.35833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5473,14 +4887,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5502,10 +4910,10 @@
         <v>34.4</v>
       </c>
       <c r="F129" t="n">
-        <v>25.152</v>
+        <v>14.3697</v>
       </c>
       <c r="G129" t="n">
-        <v>34.40499999999999</v>
+        <v>34.36166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5514,14 +4922,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5531,22 +4933,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C130" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D130" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="E130" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F130" t="n">
-        <v>101708.7896</v>
+        <v>25.152</v>
       </c>
       <c r="G130" t="n">
-        <v>34.40999999999998</v>
+        <v>34.36000000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5555,14 +4957,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5572,7 +4968,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="C131" t="n">
         <v>34.7</v>
@@ -5581,13 +4977,13 @@
         <v>34.7</v>
       </c>
       <c r="E131" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="F131" t="n">
-        <v>1939.7118</v>
+        <v>101708.7896</v>
       </c>
       <c r="G131" t="n">
-        <v>34.42499999999999</v>
+        <v>34.36666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5596,14 +4992,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +5003,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="C132" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D132" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="E132" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="F132" t="n">
-        <v>1265.4142</v>
+        <v>1939.7118</v>
       </c>
       <c r="G132" t="n">
-        <v>34.42999999999999</v>
+        <v>34.37333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5637,14 +5027,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5654,40 +5038,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C133" t="n">
         <v>34.4</v>
       </c>
       <c r="D133" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E133" t="n">
         <v>34.4</v>
       </c>
       <c r="F133" t="n">
-        <v>2642.9674</v>
+        <v>1265.4142</v>
       </c>
       <c r="G133" t="n">
-        <v>34.42999999999999</v>
+        <v>34.37499999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>0.9921014492753623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5707,10 +5085,10 @@
         <v>34.4</v>
       </c>
       <c r="F134" t="n">
-        <v>13.9872</v>
+        <v>2642.9674</v>
       </c>
       <c r="G134" t="n">
-        <v>34.42999999999999</v>
+        <v>34.37666666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5742,10 +5120,10 @@
         <v>34.4</v>
       </c>
       <c r="F135" t="n">
-        <v>12.7896</v>
+        <v>13.9872</v>
       </c>
       <c r="G135" t="n">
-        <v>34.42499999999999</v>
+        <v>34.37833333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5777,10 +5155,10 @@
         <v>34.4</v>
       </c>
       <c r="F136" t="n">
-        <v>14.789</v>
+        <v>12.7896</v>
       </c>
       <c r="G136" t="n">
-        <v>34.42499999999999</v>
+        <v>34.38166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5803,19 +5181,19 @@
         <v>34.4</v>
       </c>
       <c r="C137" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D137" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E137" t="n">
         <v>34.4</v>
       </c>
       <c r="F137" t="n">
-        <v>372.3381</v>
+        <v>14.789</v>
       </c>
       <c r="G137" t="n">
-        <v>34.42499999999999</v>
+        <v>34.385</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5838,19 +5216,19 @@
         <v>34.4</v>
       </c>
       <c r="C138" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D138" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E138" t="n">
         <v>34.4</v>
       </c>
       <c r="F138" t="n">
-        <v>353.755</v>
+        <v>372.3381</v>
       </c>
       <c r="G138" t="n">
-        <v>34.42499999999999</v>
+        <v>34.39166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5882,10 +5260,10 @@
         <v>34.4</v>
       </c>
       <c r="F139" t="n">
-        <v>27.883</v>
+        <v>353.755</v>
       </c>
       <c r="G139" t="n">
-        <v>34.42499999999999</v>
+        <v>34.395</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5911,16 +5289,16 @@
         <v>34.4</v>
       </c>
       <c r="D140" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E140" t="n">
         <v>34.4</v>
       </c>
       <c r="F140" t="n">
-        <v>142.8834</v>
+        <v>27.883</v>
       </c>
       <c r="G140" t="n">
-        <v>34.42499999999999</v>
+        <v>34.39833333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5946,16 +5324,16 @@
         <v>34.4</v>
       </c>
       <c r="D141" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E141" t="n">
         <v>34.4</v>
       </c>
       <c r="F141" t="n">
-        <v>39.7358</v>
+        <v>142.8834</v>
       </c>
       <c r="G141" t="n">
-        <v>34.42499999999999</v>
+        <v>34.40166666666668</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5987,10 +5365,10 @@
         <v>34.4</v>
       </c>
       <c r="F142" t="n">
-        <v>12.1212</v>
+        <v>39.7358</v>
       </c>
       <c r="G142" t="n">
-        <v>34.42499999999999</v>
+        <v>34.40500000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6010,22 +5388,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C143" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D143" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E143" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F143" t="n">
-        <v>114</v>
+        <v>12.1212</v>
       </c>
       <c r="G143" t="n">
-        <v>34.42999999999999</v>
+        <v>34.40833333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6045,22 +5423,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C144" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D144" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E144" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F144" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G144" t="n">
-        <v>34.42999999999999</v>
+        <v>34.41500000000003</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6092,10 +5470,10 @@
         <v>34.4</v>
       </c>
       <c r="F145" t="n">
-        <v>23.1446</v>
+        <v>115</v>
       </c>
       <c r="G145" t="n">
-        <v>34.42999999999999</v>
+        <v>34.41833333333336</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6127,10 +5505,10 @@
         <v>34.4</v>
       </c>
       <c r="F146" t="n">
-        <v>28.3356</v>
+        <v>23.1446</v>
       </c>
       <c r="G146" t="n">
-        <v>34.42999999999999</v>
+        <v>34.4216666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6162,10 +5540,10 @@
         <v>34.4</v>
       </c>
       <c r="F147" t="n">
-        <v>13215.5894</v>
+        <v>28.3356</v>
       </c>
       <c r="G147" t="n">
-        <v>34.42999999999999</v>
+        <v>34.42500000000004</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6188,19 +5566,19 @@
         <v>34.4</v>
       </c>
       <c r="C148" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D148" t="n">
         <v>34.4</v>
       </c>
       <c r="E148" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F148" t="n">
-        <v>25997.1048</v>
+        <v>13215.5894</v>
       </c>
       <c r="G148" t="n">
-        <v>34.42999999999999</v>
+        <v>34.42833333333338</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6223,19 +5601,19 @@
         <v>34.4</v>
       </c>
       <c r="C149" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="D149" t="n">
         <v>34.4</v>
       </c>
       <c r="E149" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F149" t="n">
-        <v>100</v>
+        <v>25997.1048</v>
       </c>
       <c r="G149" t="n">
-        <v>34.42999999999999</v>
+        <v>34.43000000000005</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6267,10 +5645,10 @@
         <v>34.4</v>
       </c>
       <c r="F150" t="n">
-        <v>155.963</v>
+        <v>100</v>
       </c>
       <c r="G150" t="n">
-        <v>34.42499999999999</v>
+        <v>34.43000000000005</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6302,10 +5680,10 @@
         <v>34.4</v>
       </c>
       <c r="F151" t="n">
-        <v>305.456</v>
+        <v>155.963</v>
       </c>
       <c r="G151" t="n">
-        <v>34.40999999999998</v>
+        <v>34.43000000000005</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6337,10 +5715,10 @@
         <v>34.4</v>
       </c>
       <c r="F152" t="n">
-        <v>230.7654</v>
+        <v>305.456</v>
       </c>
       <c r="G152" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43166666666671</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6372,10 +5750,10 @@
         <v>34.4</v>
       </c>
       <c r="F153" t="n">
-        <v>237.252</v>
+        <v>230.7654</v>
       </c>
       <c r="G153" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43166666666671</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6407,10 +5785,10 @@
         <v>34.4</v>
       </c>
       <c r="F154" t="n">
-        <v>64043.5636</v>
+        <v>237.252</v>
       </c>
       <c r="G154" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43166666666671</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6439,13 +5817,13 @@
         <v>34.4</v>
       </c>
       <c r="E155" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F155" t="n">
-        <v>261617.0158</v>
+        <v>64043.5636</v>
       </c>
       <c r="G155" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43333333333338</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6474,13 +5852,13 @@
         <v>34.4</v>
       </c>
       <c r="E156" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F156" t="n">
-        <v>14.65</v>
+        <v>261617.0158</v>
       </c>
       <c r="G156" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43500000000004</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6512,10 +5890,10 @@
         <v>34.4</v>
       </c>
       <c r="F157" t="n">
-        <v>15.9663</v>
+        <v>14.65</v>
       </c>
       <c r="G157" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43500000000004</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6547,10 +5925,10 @@
         <v>34.4</v>
       </c>
       <c r="F158" t="n">
-        <v>114.669</v>
+        <v>15.9663</v>
       </c>
       <c r="G158" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43500000000004</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6582,10 +5960,10 @@
         <v>34.4</v>
       </c>
       <c r="F159" t="n">
-        <v>700.0431</v>
+        <v>114.669</v>
       </c>
       <c r="G159" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43166666666671</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6617,10 +5995,10 @@
         <v>34.4</v>
       </c>
       <c r="F160" t="n">
-        <v>14.695</v>
+        <v>700.0431</v>
       </c>
       <c r="G160" t="n">
-        <v>34.40499999999999</v>
+        <v>34.43000000000005</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6640,22 +6018,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C161" t="n">
         <v>34.4</v>
       </c>
       <c r="D161" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E161" t="n">
         <v>34.4</v>
       </c>
       <c r="F161" t="n">
-        <v>215.558</v>
+        <v>14.695</v>
       </c>
       <c r="G161" t="n">
-        <v>34.40999999999998</v>
+        <v>34.42666666666672</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6675,22 +6053,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C162" t="n">
         <v>34.4</v>
       </c>
       <c r="D162" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E162" t="n">
         <v>34.4</v>
       </c>
       <c r="F162" t="n">
-        <v>131.513</v>
+        <v>215.558</v>
       </c>
       <c r="G162" t="n">
-        <v>34.40999999999998</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6722,10 +6100,10 @@
         <v>34.4</v>
       </c>
       <c r="F163" t="n">
-        <v>114.5869</v>
+        <v>131.513</v>
       </c>
       <c r="G163" t="n">
-        <v>34.40499999999999</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6757,10 +6135,10 @@
         <v>34.4</v>
       </c>
       <c r="F164" t="n">
-        <v>70.8754</v>
+        <v>114.5869</v>
       </c>
       <c r="G164" t="n">
-        <v>34.40499999999999</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6792,10 +6170,10 @@
         <v>34.4</v>
       </c>
       <c r="F165" t="n">
-        <v>38.28</v>
+        <v>70.8754</v>
       </c>
       <c r="G165" t="n">
-        <v>34.40499999999999</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6827,10 +6205,10 @@
         <v>34.4</v>
       </c>
       <c r="F166" t="n">
-        <v>12.5809</v>
+        <v>38.28</v>
       </c>
       <c r="G166" t="n">
-        <v>34.40499999999999</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6862,10 +6240,10 @@
         <v>34.4</v>
       </c>
       <c r="F167" t="n">
-        <v>14.788</v>
+        <v>12.5809</v>
       </c>
       <c r="G167" t="n">
-        <v>34.40499999999999</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6885,22 +6263,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C168" t="n">
         <v>34.4</v>
       </c>
       <c r="D168" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E168" t="n">
         <v>34.4</v>
       </c>
       <c r="F168" t="n">
-        <v>128.555</v>
+        <v>14.788</v>
       </c>
       <c r="G168" t="n">
-        <v>34.40999999999998</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6920,22 +6298,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C169" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D169" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E169" t="n">
         <v>34.4</v>
       </c>
       <c r="F169" t="n">
-        <v>186.778</v>
+        <v>128.555</v>
       </c>
       <c r="G169" t="n">
-        <v>34.40999999999998</v>
+        <v>34.42166666666672</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6955,22 +6333,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C170" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D170" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E170" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F170" t="n">
-        <v>1320.9315</v>
+        <v>186.778</v>
       </c>
       <c r="G170" t="n">
-        <v>34.41499999999998</v>
+        <v>34.42333333333339</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6990,7 +6368,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C171" t="n">
         <v>34.6</v>
@@ -6999,13 +6377,13 @@
         <v>34.6</v>
       </c>
       <c r="E171" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F171" t="n">
-        <v>41.16</v>
+        <v>1320.9315</v>
       </c>
       <c r="G171" t="n">
-        <v>34.42499999999999</v>
+        <v>34.42666666666672</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7037,10 +6415,10 @@
         <v>34.6</v>
       </c>
       <c r="F172" t="n">
-        <v>28.35</v>
+        <v>41.16</v>
       </c>
       <c r="G172" t="n">
-        <v>34.43499999999999</v>
+        <v>34.43000000000005</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7072,10 +6450,10 @@
         <v>34.6</v>
       </c>
       <c r="F173" t="n">
-        <v>55.104</v>
+        <v>28.35</v>
       </c>
       <c r="G173" t="n">
-        <v>34.44499999999999</v>
+        <v>34.43333333333338</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7107,10 +6485,10 @@
         <v>34.6</v>
       </c>
       <c r="F174" t="n">
-        <v>114.8569</v>
+        <v>55.104</v>
       </c>
       <c r="G174" t="n">
-        <v>34.455</v>
+        <v>34.43666666666671</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7142,10 +6520,10 @@
         <v>34.6</v>
       </c>
       <c r="F175" t="n">
-        <v>29.6358</v>
+        <v>114.8569</v>
       </c>
       <c r="G175" t="n">
-        <v>34.465</v>
+        <v>34.44000000000004</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7177,10 +6555,10 @@
         <v>34.6</v>
       </c>
       <c r="F176" t="n">
-        <v>40.6244</v>
+        <v>29.6358</v>
       </c>
       <c r="G176" t="n">
-        <v>34.475</v>
+        <v>34.43833333333338</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7200,22 +6578,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C177" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="D177" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="E177" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F177" t="n">
-        <v>144672.9902</v>
+        <v>40.6244</v>
       </c>
       <c r="G177" t="n">
-        <v>34.49</v>
+        <v>34.44166666666671</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7238,19 +6616,19 @@
         <v>34.7</v>
       </c>
       <c r="C178" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D178" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E178" t="n">
         <v>34.7</v>
       </c>
       <c r="F178" t="n">
-        <v>3728.0115</v>
+        <v>144672.9902</v>
       </c>
       <c r="G178" t="n">
-        <v>34.50500000000001</v>
+        <v>34.44833333333337</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7270,28 +6648,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C179" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D179" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E179" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F179" t="n">
-        <v>54</v>
+        <v>3728.0115</v>
       </c>
       <c r="G179" t="n">
-        <v>34.51500000000001</v>
+        <v>34.45333333333337</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -7305,28 +6683,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C180" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D180" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E180" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G180" t="n">
-        <v>34.53000000000002</v>
+        <v>34.4566666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -7340,22 +6718,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="C181" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="D181" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="E181" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="F181" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>34.53000000000002</v>
+        <v>34.46166666666669</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7387,10 +6765,10 @@
         <v>34.5</v>
       </c>
       <c r="F182" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G182" t="n">
-        <v>34.53500000000001</v>
+        <v>34.46333333333336</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7422,10 +6800,10 @@
         <v>34.5</v>
       </c>
       <c r="F183" t="n">
-        <v>29000</v>
+        <v>16</v>
       </c>
       <c r="G183" t="n">
-        <v>34.54000000000001</v>
+        <v>34.46333333333336</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7445,22 +6823,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C184" t="n">
         <v>34.5</v>
       </c>
       <c r="D184" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E184" t="n">
         <v>34.5</v>
       </c>
       <c r="F184" t="n">
-        <v>24</v>
+        <v>29000</v>
       </c>
       <c r="G184" t="n">
-        <v>34.55000000000002</v>
+        <v>34.46500000000002</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7480,22 +6858,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C185" t="n">
         <v>34.5</v>
       </c>
       <c r="D185" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E185" t="n">
         <v>34.5</v>
       </c>
       <c r="F185" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G185" t="n">
-        <v>34.55500000000002</v>
+        <v>34.46666666666669</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7515,22 +6893,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C186" t="n">
         <v>34.5</v>
       </c>
       <c r="D186" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E186" t="n">
         <v>34.5</v>
       </c>
       <c r="F186" t="n">
-        <v>29037</v>
+        <v>12</v>
       </c>
       <c r="G186" t="n">
-        <v>34.56500000000002</v>
+        <v>34.46833333333336</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7550,22 +6928,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C187" t="n">
         <v>34.5</v>
       </c>
       <c r="D187" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E187" t="n">
         <v>34.5</v>
       </c>
       <c r="F187" t="n">
-        <v>26</v>
+        <v>29037</v>
       </c>
       <c r="G187" t="n">
-        <v>34.57000000000002</v>
+        <v>34.47000000000002</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7597,10 +6975,10 @@
         <v>34.5</v>
       </c>
       <c r="F188" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G188" t="n">
-        <v>34.57000000000002</v>
+        <v>34.47166666666669</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7632,10 +7010,10 @@
         <v>34.5</v>
       </c>
       <c r="F189" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G189" t="n">
-        <v>34.57500000000002</v>
+        <v>34.47333333333335</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7667,10 +7045,10 @@
         <v>34.5</v>
       </c>
       <c r="F190" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G190" t="n">
-        <v>34.57500000000002</v>
+        <v>34.47500000000002</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7702,10 +7080,10 @@
         <v>34.5</v>
       </c>
       <c r="F191" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G191" t="n">
-        <v>34.57000000000002</v>
+        <v>34.47166666666669</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7737,10 +7115,10 @@
         <v>34.5</v>
       </c>
       <c r="F192" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G192" t="n">
-        <v>34.56500000000002</v>
+        <v>34.46833333333336</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7772,10 +7150,10 @@
         <v>34.5</v>
       </c>
       <c r="F193" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G193" t="n">
-        <v>34.56000000000002</v>
+        <v>34.47000000000002</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7807,10 +7185,10 @@
         <v>34.5</v>
       </c>
       <c r="F194" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G194" t="n">
-        <v>34.55500000000002</v>
+        <v>34.47166666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7842,10 +7220,10 @@
         <v>34.5</v>
       </c>
       <c r="F195" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G195" t="n">
-        <v>34.55000000000002</v>
+        <v>34.47333333333335</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7865,22 +7243,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C196" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D196" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E196" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G196" t="n">
-        <v>34.55000000000002</v>
+        <v>34.47500000000002</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7900,22 +7278,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C197" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D197" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E197" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F197" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>34.54000000000001</v>
+        <v>34.47833333333335</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7947,10 +7325,10 @@
         <v>34.5</v>
       </c>
       <c r="F198" t="n">
-        <v>21500</v>
+        <v>15</v>
       </c>
       <c r="G198" t="n">
-        <v>34.53000000000002</v>
+        <v>34.47666666666668</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7982,10 +7360,10 @@
         <v>34.5</v>
       </c>
       <c r="F199" t="n">
-        <v>39403.1506</v>
+        <v>21500</v>
       </c>
       <c r="G199" t="n">
-        <v>34.52500000000001</v>
+        <v>34.47833333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8017,10 +7395,10 @@
         <v>34.5</v>
       </c>
       <c r="F200" t="n">
-        <v>40000</v>
+        <v>39403.1506</v>
       </c>
       <c r="G200" t="n">
-        <v>34.51500000000001</v>
+        <v>34.48000000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8040,22 +7418,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C201" t="n">
         <v>34.5</v>
       </c>
       <c r="D201" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E201" t="n">
         <v>34.5</v>
       </c>
       <c r="F201" t="n">
-        <v>25</v>
+        <v>40000</v>
       </c>
       <c r="G201" t="n">
-        <v>34.52000000000001</v>
+        <v>34.48166666666668</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8078,19 +7456,19 @@
         <v>34.6</v>
       </c>
       <c r="C202" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D202" t="n">
         <v>34.6</v>
       </c>
       <c r="E202" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F202" t="n">
-        <v>1080</v>
+        <v>25</v>
       </c>
       <c r="G202" t="n">
-        <v>34.52500000000001</v>
+        <v>34.48333333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8122,10 +7500,10 @@
         <v>34.6</v>
       </c>
       <c r="F203" t="n">
-        <v>64</v>
+        <v>1080</v>
       </c>
       <c r="G203" t="n">
-        <v>34.53000000000002</v>
+        <v>34.48666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8157,10 +7535,10 @@
         <v>34.6</v>
       </c>
       <c r="F204" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G204" t="n">
-        <v>34.53000000000002</v>
+        <v>34.48666666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8192,10 +7570,10 @@
         <v>34.6</v>
       </c>
       <c r="F205" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="G205" t="n">
-        <v>34.53500000000001</v>
+        <v>34.49</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8227,10 +7605,10 @@
         <v>34.6</v>
       </c>
       <c r="F206" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G206" t="n">
-        <v>34.53500000000001</v>
+        <v>34.49333333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8262,10 +7640,10 @@
         <v>34.6</v>
       </c>
       <c r="F207" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G207" t="n">
-        <v>34.54000000000001</v>
+        <v>34.49666666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8297,10 +7675,10 @@
         <v>34.6</v>
       </c>
       <c r="F208" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G208" t="n">
-        <v>34.54500000000002</v>
+        <v>34.49999999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8335,7 +7713,7 @@
         <v>14</v>
       </c>
       <c r="G209" t="n">
-        <v>34.55000000000002</v>
+        <v>34.50499999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8367,10 +7745,10 @@
         <v>34.6</v>
       </c>
       <c r="F210" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G210" t="n">
-        <v>34.55500000000002</v>
+        <v>34.50833333333332</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8402,10 +7780,10 @@
         <v>34.6</v>
       </c>
       <c r="F211" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G211" t="n">
-        <v>34.56000000000002</v>
+        <v>34.51166666666665</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8425,22 +7803,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C212" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D212" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E212" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G212" t="n">
-        <v>34.57000000000002</v>
+        <v>34.51499999999998</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8460,22 +7838,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C213" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D213" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E213" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F213" t="n">
-        <v>248.6464</v>
+        <v>10</v>
       </c>
       <c r="G213" t="n">
-        <v>34.57500000000002</v>
+        <v>34.51999999999997</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8495,22 +7873,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C214" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D214" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E214" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F214" t="n">
-        <v>1239.193</v>
+        <v>248.6464</v>
       </c>
       <c r="G214" t="n">
-        <v>34.58500000000002</v>
+        <v>34.52333333333331</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8542,10 +7920,10 @@
         <v>34.7</v>
       </c>
       <c r="F215" t="n">
-        <v>40085</v>
+        <v>1239.193</v>
       </c>
       <c r="G215" t="n">
-        <v>34.59500000000003</v>
+        <v>34.5283333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8577,10 +7955,10 @@
         <v>34.7</v>
       </c>
       <c r="F216" t="n">
-        <v>81456</v>
+        <v>40085</v>
       </c>
       <c r="G216" t="n">
-        <v>34.60000000000003</v>
+        <v>34.5333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8612,10 +7990,10 @@
         <v>34.7</v>
       </c>
       <c r="F217" t="n">
-        <v>11556</v>
+        <v>81456</v>
       </c>
       <c r="G217" t="n">
-        <v>34.61000000000003</v>
+        <v>34.53833333333329</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8647,10 +8025,10 @@
         <v>34.7</v>
       </c>
       <c r="F218" t="n">
-        <v>10326.7972</v>
+        <v>11556</v>
       </c>
       <c r="G218" t="n">
-        <v>34.62000000000003</v>
+        <v>34.54333333333329</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8682,10 +8060,10 @@
         <v>34.7</v>
       </c>
       <c r="F219" t="n">
-        <v>12081.0447</v>
+        <v>10326.7972</v>
       </c>
       <c r="G219" t="n">
-        <v>34.63000000000004</v>
+        <v>34.54833333333328</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8705,22 +8083,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C220" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D220" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E220" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F220" t="n">
-        <v>20</v>
+        <v>12081.0447</v>
       </c>
       <c r="G220" t="n">
-        <v>34.64500000000003</v>
+        <v>34.55333333333328</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8752,10 +8130,10 @@
         <v>34.8</v>
       </c>
       <c r="F221" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G221" t="n">
-        <v>34.65500000000003</v>
+        <v>34.55999999999995</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8775,22 +8153,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C222" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D222" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E222" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F222" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G222" t="n">
-        <v>34.66000000000003</v>
+        <v>34.56666666666661</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8810,22 +8188,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C223" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D223" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E223" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F223" t="n">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="G223" t="n">
-        <v>34.67000000000003</v>
+        <v>34.57166666666661</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8845,22 +8223,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C224" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D224" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E224" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F224" t="n">
-        <v>1123</v>
+        <v>18</v>
       </c>
       <c r="G224" t="n">
-        <v>34.67500000000003</v>
+        <v>34.57833333333328</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8883,19 +8261,19 @@
         <v>34.7</v>
       </c>
       <c r="C225" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D225" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E225" t="n">
         <v>34.7</v>
       </c>
       <c r="F225" t="n">
-        <v>8010</v>
+        <v>1123</v>
       </c>
       <c r="G225" t="n">
-        <v>34.68000000000003</v>
+        <v>34.58333333333327</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8927,10 +8305,10 @@
         <v>34.7</v>
       </c>
       <c r="F226" t="n">
-        <v>3184</v>
+        <v>8010</v>
       </c>
       <c r="G226" t="n">
-        <v>34.68500000000003</v>
+        <v>34.58999999999994</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8953,19 +8331,19 @@
         <v>34.7</v>
       </c>
       <c r="C227" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D227" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E227" t="n">
         <v>34.7</v>
       </c>
       <c r="F227" t="n">
-        <v>1211</v>
+        <v>3184</v>
       </c>
       <c r="G227" t="n">
-        <v>34.69000000000003</v>
+        <v>34.59666666666661</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8985,22 +8363,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C228" t="n">
         <v>34.7</v>
       </c>
       <c r="D228" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E228" t="n">
         <v>34.7</v>
       </c>
       <c r="F228" t="n">
-        <v>1166</v>
+        <v>1211</v>
       </c>
       <c r="G228" t="n">
-        <v>34.70000000000003</v>
+        <v>34.6016666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9020,10 +8398,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C229" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D229" t="n">
         <v>34.8</v>
@@ -9032,10 +8410,10 @@
         <v>34.7</v>
       </c>
       <c r="F229" t="n">
-        <v>11352</v>
+        <v>1166</v>
       </c>
       <c r="G229" t="n">
-        <v>34.70500000000003</v>
+        <v>34.6066666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9058,19 +8436,19 @@
         <v>34.7</v>
       </c>
       <c r="C230" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D230" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E230" t="n">
         <v>34.7</v>
       </c>
       <c r="F230" t="n">
-        <v>112</v>
+        <v>11352</v>
       </c>
       <c r="G230" t="n">
-        <v>34.71000000000003</v>
+        <v>34.6116666666666</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9102,10 +8480,10 @@
         <v>34.7</v>
       </c>
       <c r="F231" t="n">
-        <v>1147</v>
+        <v>112</v>
       </c>
       <c r="G231" t="n">
-        <v>34.71500000000003</v>
+        <v>34.61333333333327</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9137,10 +8515,10 @@
         <v>34.7</v>
       </c>
       <c r="F232" t="n">
-        <v>1211</v>
+        <v>1147</v>
       </c>
       <c r="G232" t="n">
-        <v>34.71500000000003</v>
+        <v>34.61499999999993</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9172,10 +8550,10 @@
         <v>34.7</v>
       </c>
       <c r="F233" t="n">
-        <v>10010</v>
+        <v>1211</v>
       </c>
       <c r="G233" t="n">
-        <v>34.72000000000003</v>
+        <v>34.6166666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9195,22 +8573,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C234" t="n">
         <v>34.7</v>
       </c>
       <c r="D234" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E234" t="n">
         <v>34.7</v>
       </c>
       <c r="F234" t="n">
-        <v>1276</v>
+        <v>10010</v>
       </c>
       <c r="G234" t="n">
-        <v>34.72500000000003</v>
+        <v>34.61833333333326</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9230,22 +8608,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C235" t="n">
         <v>34.7</v>
       </c>
       <c r="D235" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E235" t="n">
         <v>34.7</v>
       </c>
       <c r="F235" t="n">
-        <v>1142</v>
+        <v>1276</v>
       </c>
       <c r="G235" t="n">
-        <v>34.72500000000003</v>
+        <v>34.61999999999993</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9265,22 +8643,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C236" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D236" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E236" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F236" t="n">
-        <v>10000</v>
+        <v>1142</v>
       </c>
       <c r="G236" t="n">
-        <v>34.73000000000003</v>
+        <v>34.62166666666659</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9315,7 +8693,7 @@
         <v>10000</v>
       </c>
       <c r="G237" t="n">
-        <v>34.73500000000002</v>
+        <v>34.62499999999993</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9350,7 +8728,7 @@
         <v>10000</v>
       </c>
       <c r="G238" t="n">
-        <v>34.74000000000002</v>
+        <v>34.62499999999993</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9370,22 +8748,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C239" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D239" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E239" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F239" t="n">
-        <v>1141</v>
+        <v>10000</v>
       </c>
       <c r="G239" t="n">
-        <v>34.74000000000002</v>
+        <v>34.6266666666666</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9411,16 +8789,16 @@
         <v>34.7</v>
       </c>
       <c r="D240" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E240" t="n">
         <v>34.7</v>
       </c>
       <c r="F240" t="n">
-        <v>1431</v>
+        <v>1141</v>
       </c>
       <c r="G240" t="n">
-        <v>34.73500000000002</v>
+        <v>34.62833333333327</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9440,7 +8818,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C241" t="n">
         <v>34.7</v>
@@ -9452,10 +8830,10 @@
         <v>34.7</v>
       </c>
       <c r="F241" t="n">
-        <v>1335</v>
+        <v>1431</v>
       </c>
       <c r="G241" t="n">
-        <v>34.73500000000002</v>
+        <v>34.62833333333327</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9478,7 +8856,7 @@
         <v>34.8</v>
       </c>
       <c r="C242" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D242" t="n">
         <v>34.8</v>
@@ -9487,10 +8865,10 @@
         <v>34.7</v>
       </c>
       <c r="F242" t="n">
-        <v>139</v>
+        <v>1335</v>
       </c>
       <c r="G242" t="n">
-        <v>34.74000000000002</v>
+        <v>34.6316666666666</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9510,7 +8888,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C243" t="n">
         <v>34.8</v>
@@ -9522,10 +8900,10 @@
         <v>34.7</v>
       </c>
       <c r="F243" t="n">
-        <v>1561</v>
+        <v>139</v>
       </c>
       <c r="G243" t="n">
-        <v>34.73500000000002</v>
+        <v>34.63666666666661</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9557,10 +8935,10 @@
         <v>34.7</v>
       </c>
       <c r="F244" t="n">
-        <v>1166</v>
+        <v>1561</v>
       </c>
       <c r="G244" t="n">
-        <v>34.73500000000002</v>
+        <v>34.64166666666661</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9592,10 +8970,10 @@
         <v>34.7</v>
       </c>
       <c r="F245" t="n">
-        <v>1126</v>
+        <v>1166</v>
       </c>
       <c r="G245" t="n">
-        <v>34.73500000000002</v>
+        <v>34.64666666666661</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9627,10 +9005,10 @@
         <v>34.7</v>
       </c>
       <c r="F246" t="n">
-        <v>1169</v>
+        <v>1126</v>
       </c>
       <c r="G246" t="n">
-        <v>34.73500000000002</v>
+        <v>34.65166666666661</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9662,10 +9040,10 @@
         <v>34.7</v>
       </c>
       <c r="F247" t="n">
-        <v>2503.966</v>
+        <v>1169</v>
       </c>
       <c r="G247" t="n">
-        <v>34.73500000000002</v>
+        <v>34.65666666666662</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9697,10 +9075,10 @@
         <v>34.7</v>
       </c>
       <c r="F248" t="n">
-        <v>2161</v>
+        <v>2503.966</v>
       </c>
       <c r="G248" t="n">
-        <v>34.73000000000003</v>
+        <v>34.66166666666662</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9732,10 +9110,10 @@
         <v>34.7</v>
       </c>
       <c r="F249" t="n">
-        <v>1178</v>
+        <v>2161</v>
       </c>
       <c r="G249" t="n">
-        <v>34.73000000000003</v>
+        <v>34.66666666666662</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9755,7 +9133,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C250" t="n">
         <v>34.8</v>
@@ -9764,13 +9142,13 @@
         <v>34.8</v>
       </c>
       <c r="E250" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>1178</v>
       </c>
       <c r="G250" t="n">
-        <v>34.73500000000002</v>
+        <v>34.67166666666662</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9805,7 +9183,7 @@
         <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>34.74000000000002</v>
+        <v>34.67666666666663</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9825,22 +9203,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C252" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D252" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E252" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F252" t="n">
-        <v>1222</v>
+        <v>10</v>
       </c>
       <c r="G252" t="n">
-        <v>34.74000000000002</v>
+        <v>34.68166666666663</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9872,10 +9250,10 @@
         <v>34.7</v>
       </c>
       <c r="F253" t="n">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="G253" t="n">
-        <v>34.74000000000002</v>
+        <v>34.68499999999996</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9907,10 +9285,10 @@
         <v>34.7</v>
       </c>
       <c r="F254" t="n">
-        <v>2464</v>
+        <v>1236</v>
       </c>
       <c r="G254" t="n">
-        <v>34.73500000000002</v>
+        <v>34.68833333333329</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9942,10 +9320,10 @@
         <v>34.7</v>
       </c>
       <c r="F255" t="n">
-        <v>2004</v>
+        <v>2464</v>
       </c>
       <c r="G255" t="n">
-        <v>34.73500000000002</v>
+        <v>34.69166666666662</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9965,22 +9343,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C256" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D256" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E256" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F256" t="n">
-        <v>3136.4103</v>
+        <v>2004</v>
       </c>
       <c r="G256" t="n">
-        <v>34.73500000000002</v>
+        <v>34.69499999999995</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10000,22 +9378,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C257" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D257" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E257" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F257" t="n">
-        <v>10</v>
+        <v>3136.4103</v>
       </c>
       <c r="G257" t="n">
-        <v>34.74000000000002</v>
+        <v>34.69833333333329</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10035,22 +9413,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F258" t="n">
-        <v>5577.1708</v>
+        <v>10</v>
       </c>
       <c r="G258" t="n">
-        <v>34.74000000000002</v>
+        <v>34.70499999999996</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10070,22 +9448,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C259" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D259" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E259" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F259" t="n">
-        <v>61500</v>
+        <v>5577.1708</v>
       </c>
       <c r="G259" t="n">
-        <v>34.75000000000001</v>
+        <v>34.70999999999996</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10108,19 +9486,19 @@
         <v>34.9</v>
       </c>
       <c r="C260" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D260" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E260" t="n">
         <v>34.9</v>
       </c>
       <c r="F260" t="n">
-        <v>8650.3611</v>
+        <v>61500</v>
       </c>
       <c r="G260" t="n">
-        <v>34.76000000000001</v>
+        <v>34.71666666666663</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10140,7 +9518,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C261" t="n">
         <v>35</v>
@@ -10149,13 +9527,13 @@
         <v>35</v>
       </c>
       <c r="E261" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F261" t="n">
-        <v>63541.483</v>
+        <v>8650.3611</v>
       </c>
       <c r="G261" t="n">
-        <v>34.77000000000002</v>
+        <v>34.72499999999996</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10170,6 +9548,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>35</v>
+      </c>
+      <c r="C262" t="n">
+        <v>35</v>
+      </c>
+      <c r="D262" t="n">
+        <v>35</v>
+      </c>
+      <c r="E262" t="n">
+        <v>35</v>
+      </c>
+      <c r="F262" t="n">
+        <v>63541.483</v>
+      </c>
+      <c r="G262" t="n">
+        <v>34.7333333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-29 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M262"/>
+  <dimension ref="A1:N272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>25553.1403</v>
       </c>
       <c r="G2" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H2" t="n">
         <v>34.31833333333337</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H3" t="n">
         <v>34.3216666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>152</v>
       </c>
       <c r="G4" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>34.32500000000003</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>15</v>
       </c>
       <c r="G5" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>34.32833333333336</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>19</v>
       </c>
       <c r="G6" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H6" t="n">
         <v>34.33000000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>49755.3307</v>
       </c>
       <c r="G7" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>34.33333333333336</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2000</v>
       </c>
       <c r="G8" t="n">
+        <v>34.40666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>34.33500000000003</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>668</v>
       </c>
       <c r="G9" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>34.33833333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>220</v>
       </c>
       <c r="G10" t="n">
+        <v>34.39333333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>34.34166666666669</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,25 @@
         <v>38.6669</v>
       </c>
       <c r="G11" t="n">
+        <v>34.38666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>34.34833333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +837,29 @@
         <v>50.6639</v>
       </c>
       <c r="G12" t="n">
+        <v>34.36000000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>34.35000000000002</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +883,29 @@
         <v>18.9963</v>
       </c>
       <c r="G13" t="n">
+        <v>34.33333333333336</v>
+      </c>
+      <c r="H13" t="n">
         <v>34.35166666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +929,25 @@
         <v>1000</v>
       </c>
       <c r="G14" t="n">
+        <v>34.32000000000003</v>
+      </c>
+      <c r="H14" t="n">
         <v>34.35333333333335</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +971,27 @@
         <v>41557.9453</v>
       </c>
       <c r="G15" t="n">
+        <v>34.3066666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>34.35166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1015,27 @@
         <v>37.9996</v>
       </c>
       <c r="G16" t="n">
+        <v>34.2866666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>34.35000000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,22 +1059,25 @@
         <v>32.7726</v>
       </c>
       <c r="G17" t="n">
+        <v>34.2666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>34.34666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>34.1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>34.1</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1012,26 +1101,27 @@
         <v>31.9393</v>
       </c>
       <c r="G18" t="n">
+        <v>34.24000000000004</v>
+      </c>
+      <c r="H18" t="n">
         <v>34.34500000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
         <v>34.1</v>
       </c>
-      <c r="K18" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,26 +1145,27 @@
         <v>8470.700500000001</v>
       </c>
       <c r="G19" t="n">
+        <v>34.22000000000004</v>
+      </c>
+      <c r="H19" t="n">
         <v>34.34333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
         <v>34.1</v>
       </c>
-      <c r="K19" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1189,21 @@
         <v>26.265</v>
       </c>
       <c r="G20" t="n">
+        <v>34.20000000000005</v>
+      </c>
+      <c r="H20" t="n">
         <v>34.34166666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1227,21 @@
         <v>14.7963</v>
       </c>
       <c r="G21" t="n">
+        <v>34.18666666666672</v>
+      </c>
+      <c r="H21" t="n">
         <v>34.34166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1265,21 @@
         <v>723.0554</v>
       </c>
       <c r="G22" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H22" t="n">
         <v>34.33999999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1303,21 @@
         <v>27</v>
       </c>
       <c r="G23" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H23" t="n">
         <v>34.33999999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1341,21 @@
         <v>15.9963</v>
       </c>
       <c r="G24" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H24" t="n">
         <v>34.33833333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1379,21 @@
         <v>15</v>
       </c>
       <c r="G25" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H25" t="n">
         <v>34.33333333333331</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1417,21 @@
         <v>39.0469</v>
       </c>
       <c r="G26" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H26" t="n">
         <v>34.32499999999997</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1455,21 @@
         <v>29.459</v>
       </c>
       <c r="G27" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H27" t="n">
         <v>34.31666666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1493,21 @@
         <v>23.3678</v>
       </c>
       <c r="G28" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H28" t="n">
         <v>34.31833333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1531,21 @@
         <v>15</v>
       </c>
       <c r="G29" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H29" t="n">
         <v>34.30999999999997</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1569,21 @@
         <v>14.693</v>
       </c>
       <c r="G30" t="n">
+        <v>34.18000000000006</v>
+      </c>
+      <c r="H30" t="n">
         <v>34.3083333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1607,21 @@
         <v>12.63</v>
       </c>
       <c r="G31" t="n">
+        <v>34.18666666666672</v>
+      </c>
+      <c r="H31" t="n">
         <v>34.30666666666663</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1645,21 @@
         <v>6046.31233333</v>
       </c>
       <c r="G32" t="n">
+        <v>34.21333333333339</v>
+      </c>
+      <c r="H32" t="n">
         <v>34.30999999999996</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1683,21 @@
         <v>1325</v>
       </c>
       <c r="G33" t="n">
+        <v>34.22666666666672</v>
+      </c>
+      <c r="H33" t="n">
         <v>34.30999999999996</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1721,21 @@
         <v>247.135</v>
       </c>
       <c r="G34" t="n">
+        <v>34.24000000000004</v>
+      </c>
+      <c r="H34" t="n">
         <v>34.30833333333329</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1759,21 @@
         <v>45519.1971</v>
       </c>
       <c r="G35" t="n">
+        <v>34.24000000000004</v>
+      </c>
+      <c r="H35" t="n">
         <v>34.30666666666662</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1797,21 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
+        <v>34.24000000000004</v>
+      </c>
+      <c r="H36" t="n">
         <v>34.30499999999995</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1835,21 @@
         <v>29.669</v>
       </c>
       <c r="G37" t="n">
+        <v>34.24000000000004</v>
+      </c>
+      <c r="H37" t="n">
         <v>34.30333333333328</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1873,21 @@
         <v>1139.5821</v>
       </c>
       <c r="G38" t="n">
+        <v>34.24666666666671</v>
+      </c>
+      <c r="H38" t="n">
         <v>34.30166666666661</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1911,21 @@
         <v>591.4999</v>
       </c>
       <c r="G39" t="n">
+        <v>34.24666666666671</v>
+      </c>
+      <c r="H39" t="n">
         <v>34.29833333333328</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +1949,21 @@
         <v>1514.9963</v>
       </c>
       <c r="G40" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H40" t="n">
         <v>34.29833333333328</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +1987,21 @@
         <v>2545.4</v>
       </c>
       <c r="G41" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H41" t="n">
         <v>34.29833333333328</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +2025,21 @@
         <v>388.6273</v>
       </c>
       <c r="G42" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H42" t="n">
         <v>34.2966666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2063,21 @@
         <v>51439.3898</v>
       </c>
       <c r="G43" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H43" t="n">
         <v>34.29499999999993</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2101,21 @@
         <v>79.39149999999999</v>
       </c>
       <c r="G44" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H44" t="n">
         <v>34.2966666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2139,21 @@
         <v>138.807</v>
       </c>
       <c r="G45" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H45" t="n">
         <v>34.29499999999992</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2177,21 @@
         <v>656.0948</v>
       </c>
       <c r="G46" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H46" t="n">
         <v>34.29333333333325</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2215,21 @@
         <v>70.9909</v>
       </c>
       <c r="G47" t="n">
+        <v>34.23333333333337</v>
+      </c>
+      <c r="H47" t="n">
         <v>34.28833333333325</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2253,25 @@
         <v>87.3519</v>
       </c>
       <c r="G48" t="n">
+        <v>34.22666666666671</v>
+      </c>
+      <c r="H48" t="n">
         <v>34.28333333333324</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2295,29 @@
         <v>171.5309</v>
       </c>
       <c r="G49" t="n">
+        <v>34.22000000000004</v>
+      </c>
+      <c r="H49" t="n">
         <v>34.28333333333324</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2341,27 @@
         <v>90.2754</v>
       </c>
       <c r="G50" t="n">
+        <v>34.22000000000004</v>
+      </c>
+      <c r="H50" t="n">
         <v>34.27833333333324</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2385,27 @@
         <v>79.55800000000001</v>
       </c>
       <c r="G51" t="n">
+        <v>34.22000000000004</v>
+      </c>
+      <c r="H51" t="n">
         <v>34.27166666666657</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2429,29 @@
         <v>41.7032</v>
       </c>
       <c r="G52" t="n">
+        <v>34.22000000000004</v>
+      </c>
+      <c r="H52" t="n">
         <v>34.2649999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2475,29 @@
         <v>113.4529</v>
       </c>
       <c r="G53" t="n">
+        <v>34.23333333333338</v>
+      </c>
+      <c r="H53" t="n">
         <v>34.26666666666657</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2521,27 @@
         <v>723.452</v>
       </c>
       <c r="G54" t="n">
+        <v>34.23333333333338</v>
+      </c>
+      <c r="H54" t="n">
         <v>34.26499999999989</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2565,27 @@
         <v>864.7169</v>
       </c>
       <c r="G55" t="n">
+        <v>34.24000000000004</v>
+      </c>
+      <c r="H55" t="n">
         <v>34.26666666666656</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2609,27 @@
         <v>13083.458</v>
       </c>
       <c r="G56" t="n">
+        <v>34.24666666666671</v>
+      </c>
+      <c r="H56" t="n">
         <v>34.26666666666656</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2653,27 @@
         <v>152.3959</v>
       </c>
       <c r="G57" t="n">
+        <v>34.25333333333337</v>
+      </c>
+      <c r="H57" t="n">
         <v>34.26166666666656</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2697,27 @@
         <v>1532.1195</v>
       </c>
       <c r="G58" t="n">
+        <v>34.26000000000003</v>
+      </c>
+      <c r="H58" t="n">
         <v>34.25666666666657</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2741,27 @@
         <v>185.1459</v>
       </c>
       <c r="G59" t="n">
+        <v>34.26666666666669</v>
+      </c>
+      <c r="H59" t="n">
         <v>34.2549999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2785,29 @@
         <v>1321.6193</v>
       </c>
       <c r="G60" t="n">
+        <v>34.27333333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>34.25333333333324</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2831,29 @@
         <v>195.201</v>
       </c>
       <c r="G61" t="n">
+        <v>34.28000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>34.25166666666657</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2877,29 @@
         <v>59.0354</v>
       </c>
       <c r="G62" t="n">
+        <v>34.28666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>34.24999999999991</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +2923,29 @@
         <v>128.2813</v>
       </c>
       <c r="G63" t="n">
+        <v>34.29333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>34.24666666666658</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +2969,29 @@
         <v>91.2816</v>
       </c>
       <c r="G64" t="n">
+        <v>34.29333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>34.24333333333325</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +3015,29 @@
         <v>219.5663</v>
       </c>
       <c r="G65" t="n">
+        <v>34.29999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>34.23999999999992</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +3061,29 @@
         <v>14.5869</v>
       </c>
       <c r="G66" t="n">
+        <v>34.30666666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>34.23833333333325</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +3107,29 @@
         <v>14.587</v>
       </c>
       <c r="G67" t="n">
+        <v>34.31333333333331</v>
+      </c>
+      <c r="H67" t="n">
         <v>34.23833333333325</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3153,29 @@
         <v>29946.1351</v>
       </c>
       <c r="G68" t="n">
+        <v>34.29333333333332</v>
+      </c>
+      <c r="H68" t="n">
         <v>34.23833333333325</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L68" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3199,29 @@
         <v>141.141</v>
       </c>
       <c r="G69" t="n">
+        <v>34.29333333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>34.23833333333325</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3245,29 @@
         <v>595.452</v>
       </c>
       <c r="G70" t="n">
+        <v>34.29999999999998</v>
+      </c>
+      <c r="H70" t="n">
         <v>34.24333333333325</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3291,29 @@
         <v>417.8203</v>
       </c>
       <c r="G71" t="n">
+        <v>34.29999999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>34.24499999999993</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L71" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3337,27 @@
         <v>867.859</v>
       </c>
       <c r="G72" t="n">
+        <v>34.29999999999998</v>
+      </c>
+      <c r="H72" t="n">
         <v>34.2466666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3381,29 @@
         <v>622.5575</v>
       </c>
       <c r="G73" t="n">
+        <v>34.29999999999998</v>
+      </c>
+      <c r="H73" t="n">
         <v>34.24833333333327</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3427,29 @@
         <v>1248.2735</v>
       </c>
       <c r="G74" t="n">
+        <v>34.29999999999998</v>
+      </c>
+      <c r="H74" t="n">
         <v>34.24999999999995</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3473,29 @@
         <v>40176.4897</v>
       </c>
       <c r="G75" t="n">
+        <v>34.29999999999998</v>
+      </c>
+      <c r="H75" t="n">
         <v>34.25166666666662</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3519,29 @@
         <v>714.895</v>
       </c>
       <c r="G76" t="n">
+        <v>34.29333333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>34.25333333333329</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3565,29 @@
         <v>426.2875</v>
       </c>
       <c r="G77" t="n">
+        <v>34.28666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>34.25499999999995</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3611,29 @@
         <v>62.819</v>
       </c>
       <c r="G78" t="n">
+        <v>34.28</v>
+      </c>
+      <c r="H78" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3657,29 @@
         <v>16.9663</v>
       </c>
       <c r="G79" t="n">
+        <v>34.27333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3703,29 @@
         <v>11798.1276</v>
       </c>
       <c r="G80" t="n">
+        <v>34.26666666666668</v>
+      </c>
+      <c r="H80" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3749,29 @@
         <v>27.5221</v>
       </c>
       <c r="G81" t="n">
+        <v>34.26000000000002</v>
+      </c>
+      <c r="H81" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3795,29 @@
         <v>138.8519</v>
       </c>
       <c r="G82" t="n">
+        <v>34.25333333333336</v>
+      </c>
+      <c r="H82" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3841,29 @@
         <v>68.03</v>
       </c>
       <c r="G83" t="n">
+        <v>34.25333333333336</v>
+      </c>
+      <c r="H83" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3887,29 @@
         <v>45.6258</v>
       </c>
       <c r="G84" t="n">
+        <v>34.25333333333336</v>
+      </c>
+      <c r="H84" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3933,29 @@
         <v>89.64100000000001</v>
       </c>
       <c r="G85" t="n">
+        <v>34.23333333333336</v>
+      </c>
+      <c r="H85" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3979,29 @@
         <v>28.267</v>
       </c>
       <c r="G86" t="n">
+        <v>34.2266666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +4025,29 @@
         <v>13.586</v>
       </c>
       <c r="G87" t="n">
+        <v>34.22000000000004</v>
+      </c>
+      <c r="H87" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +4071,29 @@
         <v>25.6915</v>
       </c>
       <c r="G88" t="n">
+        <v>34.21333333333338</v>
+      </c>
+      <c r="H88" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +4117,29 @@
         <v>60.863</v>
       </c>
       <c r="G89" t="n">
+        <v>34.20666666666672</v>
+      </c>
+      <c r="H89" t="n">
         <v>34.25666666666662</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +4163,29 @@
         <v>10745.6676</v>
       </c>
       <c r="G90" t="n">
+        <v>34.21333333333339</v>
+      </c>
+      <c r="H90" t="n">
         <v>34.25999999999996</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +4209,29 @@
         <v>18424.0998</v>
       </c>
       <c r="G91" t="n">
+        <v>34.22666666666672</v>
+      </c>
+      <c r="H91" t="n">
         <v>34.26333333333329</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L91" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4255,27 @@
         <v>42.669</v>
       </c>
       <c r="G92" t="n">
+        <v>34.23333333333338</v>
+      </c>
+      <c r="H92" t="n">
         <v>34.25999999999996</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4299,27 @@
         <v>51593.9235</v>
       </c>
       <c r="G93" t="n">
+        <v>34.24666666666671</v>
+      </c>
+      <c r="H93" t="n">
         <v>34.26166666666663</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4343,27 @@
         <v>3456.2292</v>
       </c>
       <c r="G94" t="n">
+        <v>34.26000000000003</v>
+      </c>
+      <c r="H94" t="n">
         <v>34.26166666666663</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4387,27 @@
         <v>6672.6766</v>
       </c>
       <c r="G95" t="n">
+        <v>34.26666666666669</v>
+      </c>
+      <c r="H95" t="n">
         <v>34.2633333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4431,27 @@
         <v>26.326</v>
       </c>
       <c r="G96" t="n">
+        <v>34.27333333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>34.26499999999997</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4475,27 @@
         <v>1463.804</v>
       </c>
       <c r="G97" t="n">
+        <v>34.28666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>34.26833333333331</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4519,27 @@
         <v>301.151</v>
       </c>
       <c r="G98" t="n">
+        <v>34.30000000000002</v>
+      </c>
+      <c r="H98" t="n">
         <v>34.26999999999997</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4563,27 @@
         <v>78242.98646667</v>
       </c>
       <c r="G99" t="n">
+        <v>34.32666666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>34.27666666666664</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4607,27 @@
         <v>5955</v>
       </c>
       <c r="G100" t="n">
+        <v>34.34666666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>34.27999999999997</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4651,27 @@
         <v>222.9</v>
       </c>
       <c r="G101" t="n">
+        <v>34.37333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>34.28666666666664</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4695,27 @@
         <v>1401.2294</v>
       </c>
       <c r="G102" t="n">
+        <v>34.40666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>34.29499999999997</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4739,27 @@
         <v>539</v>
       </c>
       <c r="G103" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="H103" t="n">
         <v>34.29833333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4783,27 @@
         <v>3979.574</v>
       </c>
       <c r="G104" t="n">
+        <v>34.43333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>34.30166666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4827,27 @@
         <v>527.8061</v>
       </c>
       <c r="G105" t="n">
+        <v>34.43333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>34.30499999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4871,27 @@
         <v>563.9548</v>
       </c>
       <c r="G106" t="n">
+        <v>34.43333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>34.30833333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4915,29 @@
         <v>270.3737</v>
       </c>
       <c r="G107" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H107" t="n">
         <v>34.31166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L107" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +4961,29 @@
         <v>180.034</v>
       </c>
       <c r="G108" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H108" t="n">
         <v>34.315</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L108" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +5007,29 @@
         <v>28956.9674</v>
       </c>
       <c r="G109" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H109" t="n">
         <v>34.31666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,18 +5053,29 @@
         <v>55.923</v>
       </c>
       <c r="G110" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>34.32000000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,18 +5099,29 @@
         <v>298.813</v>
       </c>
       <c r="G111" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>34.32333333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L111" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,18 +5145,29 @@
         <v>67.26649999999999</v>
       </c>
       <c r="G112" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>34.32666666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L112" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,18 +5191,29 @@
         <v>128.3312</v>
       </c>
       <c r="G113" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>34.32500000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L113" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +5237,29 @@
         <v>390.388</v>
       </c>
       <c r="G114" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H114" t="n">
         <v>34.32833333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L114" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +5283,29 @@
         <v>226.925</v>
       </c>
       <c r="G115" t="n">
+        <v>34.43333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>34.32833333333335</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +5329,29 @@
         <v>8666.311100000001</v>
       </c>
       <c r="G116" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H116" t="n">
         <v>34.33500000000002</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L116" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,18 +5375,27 @@
         <v>18.8285</v>
       </c>
       <c r="G117" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>34.33666666666668</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,18 +5419,27 @@
         <v>12.369</v>
       </c>
       <c r="G118" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>34.33833333333335</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +5463,27 @@
         <v>58.07</v>
       </c>
       <c r="G119" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>34.34000000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,18 +5507,27 @@
         <v>187.141</v>
       </c>
       <c r="G120" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>34.34166666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,18 +5551,29 @@
         <v>41.832</v>
       </c>
       <c r="G121" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>34.34333333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L121" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,18 +5597,29 @@
         <v>49.2314</v>
       </c>
       <c r="G122" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>34.34500000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5643,29 @@
         <v>181.784</v>
       </c>
       <c r="G123" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>34.34833333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L123" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,18 +5689,27 @@
         <v>307.4128</v>
       </c>
       <c r="G124" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>34.35</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,18 +5733,29 @@
         <v>141.528</v>
       </c>
       <c r="G125" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>34.35166666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L125" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,18 +5779,29 @@
         <v>1152.653</v>
       </c>
       <c r="G126" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>34.35333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L126" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,18 +5825,29 @@
         <v>14.5236</v>
       </c>
       <c r="G127" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>34.355</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L127" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,18 +5871,29 @@
         <v>145.2311</v>
       </c>
       <c r="G128" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>34.35833333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L128" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,18 +5917,29 @@
         <v>14.3697</v>
       </c>
       <c r="G129" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>34.36166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L129" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,18 +5963,29 @@
         <v>25.152</v>
       </c>
       <c r="G130" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>34.36000000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L130" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,18 +6009,29 @@
         <v>101708.7896</v>
       </c>
       <c r="G131" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>34.36666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L131" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,18 +6055,27 @@
         <v>1939.7118</v>
       </c>
       <c r="G132" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>34.37333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,18 +6099,27 @@
         <v>1265.4142</v>
       </c>
       <c r="G133" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>34.37499999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,18 +6143,27 @@
         <v>2642.9674</v>
       </c>
       <c r="G134" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>34.37666666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,18 +6187,27 @@
         <v>13.9872</v>
       </c>
       <c r="G135" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>34.37833333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,18 +6231,27 @@
         <v>12.7896</v>
       </c>
       <c r="G136" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>34.38166666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,18 +6275,27 @@
         <v>14.789</v>
       </c>
       <c r="G137" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>34.385</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,18 +6319,29 @@
         <v>372.3381</v>
       </c>
       <c r="G138" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>34.39166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L138" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,18 +6365,29 @@
         <v>353.755</v>
       </c>
       <c r="G139" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>34.395</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L139" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,18 +6411,27 @@
         <v>27.883</v>
       </c>
       <c r="G140" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>34.39833333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5333,18 +6455,29 @@
         <v>142.8834</v>
       </c>
       <c r="G141" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>34.40166666666668</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L141" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,18 +6501,29 @@
         <v>39.7358</v>
       </c>
       <c r="G142" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>34.40500000000002</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L142" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,18 +6547,29 @@
         <v>12.1212</v>
       </c>
       <c r="G143" t="n">
+        <v>34.45333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>34.40833333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L143" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,18 +6593,29 @@
         <v>114</v>
       </c>
       <c r="G144" t="n">
+        <v>34.46666666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>34.41500000000003</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L144" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,18 +6639,27 @@
         <v>115</v>
       </c>
       <c r="G145" t="n">
+        <v>34.46666666666668</v>
+      </c>
+      <c r="H145" t="n">
         <v>34.41833333333336</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,18 +6683,27 @@
         <v>23.1446</v>
       </c>
       <c r="G146" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>34.4216666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,18 +6727,27 @@
         <v>28.3356</v>
       </c>
       <c r="G147" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>34.42500000000004</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,18 +6771,27 @@
         <v>13215.5894</v>
       </c>
       <c r="G148" t="n">
+        <v>34.42666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>34.42833333333338</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,18 +6815,29 @@
         <v>25997.1048</v>
       </c>
       <c r="G149" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>34.43000000000005</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L149" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,18 +6861,29 @@
         <v>100</v>
       </c>
       <c r="G150" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>34.43000000000005</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L150" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5683,18 +6907,29 @@
         <v>155.963</v>
       </c>
       <c r="G151" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>34.43000000000005</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L151" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,18 +6953,29 @@
         <v>305.456</v>
       </c>
       <c r="G152" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>34.43166666666671</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L152" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5753,18 +6999,29 @@
         <v>230.7654</v>
       </c>
       <c r="G153" t="n">
+        <v>34.40666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>34.43166666666671</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L153" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,18 +7045,29 @@
         <v>237.252</v>
       </c>
       <c r="G154" t="n">
+        <v>34.40666666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>34.43166666666671</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L154" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5823,18 +7091,29 @@
         <v>64043.5636</v>
       </c>
       <c r="G155" t="n">
+        <v>34.40666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>34.43333333333338</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L155" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5858,18 +7137,29 @@
         <v>261617.0158</v>
       </c>
       <c r="G156" t="n">
+        <v>34.40666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>34.43500000000004</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L156" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,18 +7183,27 @@
         <v>14.65</v>
       </c>
       <c r="G157" t="n">
+        <v>34.40666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>34.43500000000004</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,18 +7227,27 @@
         <v>15.9663</v>
       </c>
       <c r="G158" t="n">
+        <v>34.40666666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>34.43500000000004</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,18 +7271,27 @@
         <v>114.669</v>
       </c>
       <c r="G159" t="n">
+        <v>34.39333333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>34.43166666666671</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5998,18 +7315,29 @@
         <v>700.0431</v>
       </c>
       <c r="G160" t="n">
+        <v>34.39333333333332</v>
+      </c>
+      <c r="H160" t="n">
         <v>34.43000000000005</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L160" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6033,18 +7361,27 @@
         <v>14.695</v>
       </c>
       <c r="G161" t="n">
+        <v>34.39333333333332</v>
+      </c>
+      <c r="H161" t="n">
         <v>34.42666666666672</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,18 +7405,27 @@
         <v>215.558</v>
       </c>
       <c r="G162" t="n">
+        <v>34.39333333333332</v>
+      </c>
+      <c r="H162" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6103,18 +7449,27 @@
         <v>131.513</v>
       </c>
       <c r="G163" t="n">
+        <v>34.39333333333332</v>
+      </c>
+      <c r="H163" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,18 +7493,27 @@
         <v>114.5869</v>
       </c>
       <c r="G164" t="n">
+        <v>34.39999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6173,18 +7537,27 @@
         <v>70.8754</v>
       </c>
       <c r="G165" t="n">
+        <v>34.39999999999999</v>
+      </c>
+      <c r="H165" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,18 +7581,29 @@
         <v>38.28</v>
       </c>
       <c r="G166" t="n">
+        <v>34.39999999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L166" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6243,18 +7627,29 @@
         <v>12.5809</v>
       </c>
       <c r="G167" t="n">
+        <v>34.39999999999999</v>
+      </c>
+      <c r="H167" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L167" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,18 +7673,29 @@
         <v>14.788</v>
       </c>
       <c r="G168" t="n">
+        <v>34.39999999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L168" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,18 +7719,29 @@
         <v>128.555</v>
       </c>
       <c r="G169" t="n">
+        <v>34.39999999999999</v>
+      </c>
+      <c r="H169" t="n">
         <v>34.42166666666672</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L169" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,18 +7765,27 @@
         <v>186.778</v>
       </c>
       <c r="G170" t="n">
+        <v>34.40666666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>34.42333333333339</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,18 +7809,27 @@
         <v>1320.9315</v>
       </c>
       <c r="G171" t="n">
+        <v>34.41999999999999</v>
+      </c>
+      <c r="H171" t="n">
         <v>34.42666666666672</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,18 +7853,27 @@
         <v>41.16</v>
       </c>
       <c r="G172" t="n">
+        <v>34.43333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>34.43000000000005</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,18 +7897,27 @@
         <v>28.35</v>
       </c>
       <c r="G173" t="n">
+        <v>34.44666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>34.43333333333338</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6488,18 +7941,27 @@
         <v>55.104</v>
       </c>
       <c r="G174" t="n">
+        <v>34.46000000000001</v>
+      </c>
+      <c r="H174" t="n">
         <v>34.43666666666671</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,18 +7985,27 @@
         <v>114.8569</v>
       </c>
       <c r="G175" t="n">
+        <v>34.47333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>34.44000000000004</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,18 +8029,27 @@
         <v>29.6358</v>
       </c>
       <c r="G176" t="n">
+        <v>34.48666666666668</v>
+      </c>
+      <c r="H176" t="n">
         <v>34.43833333333338</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,18 +8073,27 @@
         <v>40.6244</v>
       </c>
       <c r="G177" t="n">
+        <v>34.50000000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>34.44166666666671</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,18 +8117,27 @@
         <v>144672.9902</v>
       </c>
       <c r="G178" t="n">
+        <v>34.52666666666668</v>
+      </c>
+      <c r="H178" t="n">
         <v>34.44833333333337</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,18 +8161,27 @@
         <v>3728.0115</v>
       </c>
       <c r="G179" t="n">
+        <v>34.54666666666669</v>
+      </c>
+      <c r="H179" t="n">
         <v>34.45333333333337</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,18 +8205,27 @@
         <v>54</v>
       </c>
       <c r="G180" t="n">
+        <v>34.56000000000002</v>
+      </c>
+      <c r="H180" t="n">
         <v>34.4566666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6733,18 +8249,27 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
+        <v>34.58000000000003</v>
+      </c>
+      <c r="H181" t="n">
         <v>34.46166666666669</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,18 +8293,27 @@
         <v>15</v>
       </c>
       <c r="G182" t="n">
+        <v>34.58666666666669</v>
+      </c>
+      <c r="H182" t="n">
         <v>34.46333333333336</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6803,18 +8337,27 @@
         <v>16</v>
       </c>
       <c r="G183" t="n">
+        <v>34.59333333333336</v>
+      </c>
+      <c r="H183" t="n">
         <v>34.46333333333336</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,18 +8381,27 @@
         <v>29000</v>
       </c>
       <c r="G184" t="n">
+        <v>34.60000000000003</v>
+      </c>
+      <c r="H184" t="n">
         <v>34.46500000000002</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,18 +8425,27 @@
         <v>24</v>
       </c>
       <c r="G185" t="n">
+        <v>34.60000000000003</v>
+      </c>
+      <c r="H185" t="n">
         <v>34.46666666666669</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6908,18 +8469,27 @@
         <v>12</v>
       </c>
       <c r="G186" t="n">
+        <v>34.59333333333336</v>
+      </c>
+      <c r="H186" t="n">
         <v>34.46833333333336</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6943,18 +8513,27 @@
         <v>29037</v>
       </c>
       <c r="G187" t="n">
+        <v>34.58666666666669</v>
+      </c>
+      <c r="H187" t="n">
         <v>34.47000000000002</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6978,18 +8557,27 @@
         <v>26</v>
       </c>
       <c r="G188" t="n">
+        <v>34.58000000000003</v>
+      </c>
+      <c r="H188" t="n">
         <v>34.47166666666669</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,18 +8601,27 @@
         <v>11</v>
       </c>
       <c r="G189" t="n">
+        <v>34.57333333333336</v>
+      </c>
+      <c r="H189" t="n">
         <v>34.47333333333335</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,18 +8645,27 @@
         <v>30</v>
       </c>
       <c r="G190" t="n">
+        <v>34.56666666666669</v>
+      </c>
+      <c r="H190" t="n">
         <v>34.47500000000002</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7083,18 +8689,27 @@
         <v>29</v>
       </c>
       <c r="G191" t="n">
+        <v>34.56000000000002</v>
+      </c>
+      <c r="H191" t="n">
         <v>34.47166666666669</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,18 +8733,29 @@
         <v>28</v>
       </c>
       <c r="G192" t="n">
+        <v>34.55333333333336</v>
+      </c>
+      <c r="H192" t="n">
         <v>34.46833333333336</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L192" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7153,18 +8779,29 @@
         <v>11</v>
       </c>
       <c r="G193" t="n">
+        <v>34.53333333333335</v>
+      </c>
+      <c r="H193" t="n">
         <v>34.47000000000002</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L193" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,18 +8825,29 @@
         <v>47</v>
       </c>
       <c r="G194" t="n">
+        <v>34.52000000000002</v>
+      </c>
+      <c r="H194" t="n">
         <v>34.47166666666669</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L194" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,18 +8871,29 @@
         <v>16</v>
       </c>
       <c r="G195" t="n">
+        <v>34.51333333333335</v>
+      </c>
+      <c r="H195" t="n">
         <v>34.47333333333335</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L195" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7258,18 +8917,29 @@
         <v>15</v>
       </c>
       <c r="G196" t="n">
+        <v>34.50000000000001</v>
+      </c>
+      <c r="H196" t="n">
         <v>34.47500000000002</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L196" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7293,18 +8963,29 @@
         <v>10</v>
       </c>
       <c r="G197" t="n">
+        <v>34.50666666666668</v>
+      </c>
+      <c r="H197" t="n">
         <v>34.47833333333335</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L197" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,18 +9009,29 @@
         <v>15</v>
       </c>
       <c r="G198" t="n">
+        <v>34.50666666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>34.47666666666668</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L198" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,18 +9055,29 @@
         <v>21500</v>
       </c>
       <c r="G199" t="n">
+        <v>34.50666666666668</v>
+      </c>
+      <c r="H199" t="n">
         <v>34.47833333333335</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L199" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7398,18 +9101,29 @@
         <v>39403.1506</v>
       </c>
       <c r="G200" t="n">
+        <v>34.50666666666668</v>
+      </c>
+      <c r="H200" t="n">
         <v>34.48000000000001</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L200" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,18 +9147,29 @@
         <v>40000</v>
       </c>
       <c r="G201" t="n">
+        <v>34.50666666666668</v>
+      </c>
+      <c r="H201" t="n">
         <v>34.48166666666668</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L201" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,18 +9193,29 @@
         <v>25</v>
       </c>
       <c r="G202" t="n">
+        <v>34.50666666666668</v>
+      </c>
+      <c r="H202" t="n">
         <v>34.48333333333334</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L202" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,18 +9239,29 @@
         <v>1080</v>
       </c>
       <c r="G203" t="n">
+        <v>34.51333333333335</v>
+      </c>
+      <c r="H203" t="n">
         <v>34.48666666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L203" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7538,18 +9285,29 @@
         <v>64</v>
       </c>
       <c r="G204" t="n">
+        <v>34.52000000000002</v>
+      </c>
+      <c r="H204" t="n">
         <v>34.48666666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L204" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,18 +9331,29 @@
         <v>79</v>
       </c>
       <c r="G205" t="n">
+        <v>34.52666666666669</v>
+      </c>
+      <c r="H205" t="n">
         <v>34.49</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L205" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7608,18 +9377,27 @@
         <v>58</v>
       </c>
       <c r="G206" t="n">
+        <v>34.53333333333335</v>
+      </c>
+      <c r="H206" t="n">
         <v>34.49333333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,18 +9421,27 @@
         <v>12</v>
       </c>
       <c r="G207" t="n">
+        <v>34.54000000000003</v>
+      </c>
+      <c r="H207" t="n">
         <v>34.49666666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7678,18 +9465,27 @@
         <v>29</v>
       </c>
       <c r="G208" t="n">
+        <v>34.5466666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>34.49999999999999</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7713,18 +9509,27 @@
         <v>14</v>
       </c>
       <c r="G209" t="n">
+        <v>34.55333333333336</v>
+      </c>
+      <c r="H209" t="n">
         <v>34.50499999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,18 +9553,27 @@
         <v>14</v>
       </c>
       <c r="G210" t="n">
+        <v>34.56000000000003</v>
+      </c>
+      <c r="H210" t="n">
         <v>34.50833333333332</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,18 +9597,29 @@
         <v>15</v>
       </c>
       <c r="G211" t="n">
+        <v>34.5666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>34.51166666666665</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L211" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7818,18 +9643,29 @@
         <v>16</v>
       </c>
       <c r="G212" t="n">
+        <v>34.5666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>34.51499999999998</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L212" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,18 +9689,29 @@
         <v>10</v>
       </c>
       <c r="G213" t="n">
+        <v>34.58000000000003</v>
+      </c>
+      <c r="H213" t="n">
         <v>34.51999999999997</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L213" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,18 +9735,29 @@
         <v>248.6464</v>
       </c>
       <c r="G214" t="n">
+        <v>34.5866666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>34.52333333333331</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L214" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7923,18 +9781,29 @@
         <v>1239.193</v>
       </c>
       <c r="G215" t="n">
+        <v>34.60000000000004</v>
+      </c>
+      <c r="H215" t="n">
         <v>34.5283333333333</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L215" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7958,18 +9827,29 @@
         <v>40085</v>
       </c>
       <c r="G216" t="n">
+        <v>34.61333333333337</v>
+      </c>
+      <c r="H216" t="n">
         <v>34.5333333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L216" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,18 +9873,27 @@
         <v>81456</v>
       </c>
       <c r="G217" t="n">
+        <v>34.62666666666671</v>
+      </c>
+      <c r="H217" t="n">
         <v>34.53833333333329</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8028,18 +9917,27 @@
         <v>11556</v>
       </c>
       <c r="G218" t="n">
+        <v>34.63333333333338</v>
+      </c>
+      <c r="H218" t="n">
         <v>34.54333333333329</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8063,18 +9961,29 @@
         <v>10326.7972</v>
       </c>
       <c r="G219" t="n">
+        <v>34.64000000000005</v>
+      </c>
+      <c r="H219" t="n">
         <v>34.54833333333328</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L219" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,18 +10007,29 @@
         <v>12081.0447</v>
       </c>
       <c r="G220" t="n">
+        <v>34.64666666666672</v>
+      </c>
+      <c r="H220" t="n">
         <v>34.55333333333328</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L220" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8133,18 +10053,29 @@
         <v>20</v>
       </c>
       <c r="G221" t="n">
+        <v>34.66000000000005</v>
+      </c>
+      <c r="H221" t="n">
         <v>34.55999999999995</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L221" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8168,18 +10099,27 @@
         <v>10</v>
       </c>
       <c r="G222" t="n">
+        <v>34.67333333333337</v>
+      </c>
+      <c r="H222" t="n">
         <v>34.56666666666661</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,18 +10143,27 @@
         <v>145</v>
       </c>
       <c r="G223" t="n">
+        <v>34.68000000000004</v>
+      </c>
+      <c r="H223" t="n">
         <v>34.57166666666661</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8238,18 +10187,27 @@
         <v>18</v>
       </c>
       <c r="G224" t="n">
+        <v>34.69333333333337</v>
+      </c>
+      <c r="H224" t="n">
         <v>34.57833333333328</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8273,18 +10231,27 @@
         <v>1123</v>
       </c>
       <c r="G225" t="n">
+        <v>34.70000000000004</v>
+      </c>
+      <c r="H225" t="n">
         <v>34.58333333333327</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8308,18 +10275,27 @@
         <v>8010</v>
       </c>
       <c r="G226" t="n">
+        <v>34.71333333333337</v>
+      </c>
+      <c r="H226" t="n">
         <v>34.58999999999994</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8343,18 +10319,27 @@
         <v>3184</v>
       </c>
       <c r="G227" t="n">
+        <v>34.72666666666669</v>
+      </c>
+      <c r="H227" t="n">
         <v>34.59666666666661</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8378,18 +10363,27 @@
         <v>1211</v>
       </c>
       <c r="G228" t="n">
+        <v>34.72666666666669</v>
+      </c>
+      <c r="H228" t="n">
         <v>34.6016666666666</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8413,18 +10407,27 @@
         <v>1166</v>
       </c>
       <c r="G229" t="n">
+        <v>34.73333333333336</v>
+      </c>
+      <c r="H229" t="n">
         <v>34.6066666666666</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8448,18 +10451,27 @@
         <v>11352</v>
       </c>
       <c r="G230" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H230" t="n">
         <v>34.6116666666666</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8483,18 +10495,27 @@
         <v>112</v>
       </c>
       <c r="G231" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H231" t="n">
         <v>34.61333333333327</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8518,18 +10539,27 @@
         <v>1147</v>
       </c>
       <c r="G232" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H232" t="n">
         <v>34.61499999999993</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8553,18 +10583,27 @@
         <v>1211</v>
       </c>
       <c r="G233" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H233" t="n">
         <v>34.6166666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8588,18 +10627,27 @@
         <v>10010</v>
       </c>
       <c r="G234" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H234" t="n">
         <v>34.61833333333326</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8623,18 +10671,27 @@
         <v>1276</v>
       </c>
       <c r="G235" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H235" t="n">
         <v>34.61999999999993</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8658,18 +10715,27 @@
         <v>1142</v>
       </c>
       <c r="G236" t="n">
+        <v>34.73333333333336</v>
+      </c>
+      <c r="H236" t="n">
         <v>34.62166666666659</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8693,18 +10759,27 @@
         <v>10000</v>
       </c>
       <c r="G237" t="n">
+        <v>34.73333333333336</v>
+      </c>
+      <c r="H237" t="n">
         <v>34.62499999999993</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8728,18 +10803,27 @@
         <v>10000</v>
       </c>
       <c r="G238" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H238" t="n">
         <v>34.62499999999993</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8763,18 +10847,27 @@
         <v>10000</v>
       </c>
       <c r="G239" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H239" t="n">
         <v>34.6266666666666</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8798,18 +10891,27 @@
         <v>1141</v>
       </c>
       <c r="G240" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H240" t="n">
         <v>34.62833333333327</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8833,18 +10935,27 @@
         <v>1431</v>
       </c>
       <c r="G241" t="n">
+        <v>34.73333333333336</v>
+      </c>
+      <c r="H241" t="n">
         <v>34.62833333333327</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8868,18 +10979,27 @@
         <v>1335</v>
       </c>
       <c r="G242" t="n">
+        <v>34.7266666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>34.6316666666666</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="L242" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8903,18 +11023,27 @@
         <v>139</v>
       </c>
       <c r="G243" t="n">
+        <v>34.73333333333336</v>
+      </c>
+      <c r="H243" t="n">
         <v>34.63666666666661</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8938,18 +11067,27 @@
         <v>1561</v>
       </c>
       <c r="G244" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H244" t="n">
         <v>34.64166666666661</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8973,18 +11111,27 @@
         <v>1166</v>
       </c>
       <c r="G245" t="n">
+        <v>34.74000000000002</v>
+      </c>
+      <c r="H245" t="n">
         <v>34.64666666666661</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9008,18 +11155,27 @@
         <v>1126</v>
       </c>
       <c r="G246" t="n">
+        <v>34.74666666666668</v>
+      </c>
+      <c r="H246" t="n">
         <v>34.65166666666661</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9043,18 +11199,27 @@
         <v>1169</v>
       </c>
       <c r="G247" t="n">
+        <v>34.75333333333334</v>
+      </c>
+      <c r="H247" t="n">
         <v>34.65666666666662</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9078,18 +11243,27 @@
         <v>2503.966</v>
       </c>
       <c r="G248" t="n">
+        <v>34.76000000000001</v>
+      </c>
+      <c r="H248" t="n">
         <v>34.66166666666662</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9113,18 +11287,27 @@
         <v>2161</v>
       </c>
       <c r="G249" t="n">
+        <v>34.76666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>34.66666666666662</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9148,18 +11331,27 @@
         <v>1178</v>
       </c>
       <c r="G250" t="n">
+        <v>34.77333333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>34.67166666666662</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9183,18 +11375,27 @@
         <v>10</v>
       </c>
       <c r="G251" t="n">
+        <v>34.77999999999999</v>
+      </c>
+      <c r="H251" t="n">
         <v>34.67666666666663</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9218,18 +11419,27 @@
         <v>10</v>
       </c>
       <c r="G252" t="n">
+        <v>34.77999999999999</v>
+      </c>
+      <c r="H252" t="n">
         <v>34.68166666666663</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9253,18 +11463,27 @@
         <v>1222</v>
       </c>
       <c r="G253" t="n">
+        <v>34.77333333333333</v>
+      </c>
+      <c r="H253" t="n">
         <v>34.68499999999996</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9288,18 +11507,27 @@
         <v>1236</v>
       </c>
       <c r="G254" t="n">
+        <v>34.76666666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>34.68833333333329</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9323,18 +11551,27 @@
         <v>2464</v>
       </c>
       <c r="G255" t="n">
+        <v>34.76666666666667</v>
+      </c>
+      <c r="H255" t="n">
         <v>34.69166666666662</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9358,18 +11595,27 @@
         <v>2004</v>
       </c>
       <c r="G256" t="n">
+        <v>34.76666666666667</v>
+      </c>
+      <c r="H256" t="n">
         <v>34.69499999999995</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9393,18 +11639,27 @@
         <v>3136.4103</v>
       </c>
       <c r="G257" t="n">
+        <v>34.77333333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>34.69833333333329</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9428,18 +11683,27 @@
         <v>10</v>
       </c>
       <c r="G258" t="n">
+        <v>34.77999999999999</v>
+      </c>
+      <c r="H258" t="n">
         <v>34.70499999999996</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9463,18 +11727,27 @@
         <v>5577.1708</v>
       </c>
       <c r="G259" t="n">
+        <v>34.77999999999999</v>
+      </c>
+      <c r="H259" t="n">
         <v>34.70999999999996</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9498,18 +11771,27 @@
         <v>61500</v>
       </c>
       <c r="G260" t="n">
+        <v>34.78666666666666</v>
+      </c>
+      <c r="H260" t="n">
         <v>34.71666666666663</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9533,18 +11815,27 @@
         <v>8650.3611</v>
       </c>
       <c r="G261" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H261" t="n">
         <v>34.72499999999996</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9568,18 +11859,443 @@
         <v>63541.483</v>
       </c>
       <c r="G262" t="n">
+        <v>34.81333333333334</v>
+      </c>
+      <c r="H262" t="n">
         <v>34.7333333333333</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E263" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>6895.7905</v>
+      </c>
+      <c r="G263" t="n">
+        <v>34.83333333333334</v>
+      </c>
+      <c r="H263" t="n">
+        <v>34.74166666666663</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>35</v>
+      </c>
+      <c r="C264" t="n">
+        <v>35</v>
+      </c>
+      <c r="D264" t="n">
+        <v>35</v>
+      </c>
+      <c r="E264" t="n">
+        <v>35</v>
+      </c>
+      <c r="F264" t="n">
+        <v>550</v>
+      </c>
+      <c r="G264" t="n">
+        <v>34.84666666666668</v>
+      </c>
+      <c r="H264" t="n">
+        <v>34.7483333333333</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2892.735</v>
+      </c>
+      <c r="G265" t="n">
+        <v>34.86666666666668</v>
+      </c>
+      <c r="H265" t="n">
+        <v>34.75666666666663</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>35</v>
+      </c>
+      <c r="C266" t="n">
+        <v>35</v>
+      </c>
+      <c r="D266" t="n">
+        <v>35</v>
+      </c>
+      <c r="E266" t="n">
+        <v>35</v>
+      </c>
+      <c r="F266" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="G266" t="n">
+        <v>34.88000000000002</v>
+      </c>
+      <c r="H266" t="n">
+        <v>34.7633333333333</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>528.1636999999999</v>
+      </c>
+      <c r="G267" t="n">
+        <v>34.90000000000002</v>
+      </c>
+      <c r="H267" t="n">
+        <v>34.77166666666663</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G268" t="n">
+        <v>34.92666666666669</v>
+      </c>
+      <c r="H268" t="n">
+        <v>34.77999999999997</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1.021315789473684</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D269" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>23653.1534</v>
+      </c>
+      <c r="G269" t="n">
+        <v>34.96000000000002</v>
+      </c>
+      <c r="H269" t="n">
+        <v>34.78999999999996</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C270" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E270" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F270" t="n">
+        <v>5157.1448</v>
+      </c>
+      <c r="G270" t="n">
+        <v>34.99333333333335</v>
+      </c>
+      <c r="H270" t="n">
+        <v>34.79999999999996</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C271" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D271" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E271" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F271" t="n">
+        <v>68522.72719999999</v>
+      </c>
+      <c r="G271" t="n">
+        <v>35.03333333333335</v>
+      </c>
+      <c r="H271" t="n">
+        <v>34.81166666666663</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>13201.5798</v>
+      </c>
+      <c r="G272" t="n">
+        <v>35.05333333333336</v>
+      </c>
+      <c r="H272" t="n">
+        <v>34.81999999999996</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-29 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N330"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-920726.6119339899</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,20 +3291,13 @@
       <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3594,22 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3636,24 +3357,13 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,18 +3388,15 @@
         <v>-907572.5987006598</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,18 +3421,15 @@
         <v>-907325.4637006598</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3750,18 +3454,15 @@
         <v>-952844.6608006598</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3786,18 +3487,15 @@
         <v>-952844.6608006598</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3822,18 +3520,15 @@
         <v>-952844.6608006598</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,18 +3553,15 @@
         <v>-951705.0787006598</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3896,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3968,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4002,18 +3685,15 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4040,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4112,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,24 +3817,15 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4188,24 +3850,15 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4232,22 +3885,13 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4272,22 +3916,15 @@
         <v>-953155.4514006599</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4312,22 +3949,15 @@
         <v>-953245.7268006599</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4354,22 +3984,13 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4396,22 +4017,13 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4438,22 +4050,13 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4478,22 +4081,15 @@
         <v>-953855.7259006599</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4520,20 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4560,20 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4600,20 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4640,20 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4680,20 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4718,22 +4279,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>34.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4758,24 +4316,23 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J119" t="n">
         <v>34.3</v>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4800,24 +4357,23 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J120" t="n">
         <v>34.3</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4842,24 +4398,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J121" t="n">
         <v>34.3</v>
       </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4884,24 +4435,23 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J122" t="n">
         <v>34.3</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4926,24 +4476,23 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J123" t="n">
         <v>34.3</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4968,24 +4517,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J124" t="n">
         <v>34.3</v>
       </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5010,24 +4554,23 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J125" t="n">
         <v>34.3</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5052,24 +4595,23 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J126" t="n">
         <v>34.3</v>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5094,24 +4636,23 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J127" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5136,24 +4677,23 @@
         <v>-995425.1501006598</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J128" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5178,24 +4718,23 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J129" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5220,24 +4759,23 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J130" t="n">
         <v>34.3</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5262,24 +4800,23 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J131" t="n">
         <v>34.3</v>
       </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5304,24 +4841,23 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J132" t="n">
         <v>34.3</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5346,24 +4882,23 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J133" t="n">
         <v>34.3</v>
       </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5388,24 +4923,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J134" t="n">
         <v>34.3</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5430,24 +4964,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J135" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5472,24 +5005,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J136" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5514,24 +5046,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J137" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5556,24 +5087,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J138" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5598,24 +5128,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J139" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5640,24 +5169,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J140" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5682,24 +5210,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J141" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5724,24 +5251,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J142" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5766,24 +5292,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J143" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5808,24 +5333,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J144" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5850,24 +5374,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J145" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5892,24 +5415,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J146" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5934,24 +5456,23 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J147" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5976,24 +5497,23 @@
         <v>-985812.1978006598</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J148" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6018,24 +5538,23 @@
         <v>-985812.1978006598</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J149" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6060,24 +5579,23 @@
         <v>-985854.8668006598</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J150" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6102,24 +5620,23 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J151" t="n">
         <v>34.3</v>
       </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6144,22 +5661,23 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6184,22 +5702,23 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6224,22 +5743,23 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6264,24 +5784,23 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J155" t="n">
         <v>34.3</v>
       </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6306,22 +5825,23 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6346,22 +5866,23 @@
         <v>-861226.8294339897</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J157" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6386,22 +5907,23 @@
         <v>-867181.8294339897</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+        <v>34.6</v>
+      </c>
+      <c r="J158" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6426,22 +5948,23 @@
         <v>-866958.9294339897</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+        <v>34.5</v>
+      </c>
+      <c r="J159" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6466,22 +5989,23 @@
         <v>-865557.7000339897</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+        <v>34.6</v>
+      </c>
+      <c r="J160" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6506,22 +6030,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>34.7</v>
+      </c>
+      <c r="J161" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6548,20 +6073,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6586,22 +6110,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J163" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6626,22 +6151,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J164" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6666,22 +6192,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J165" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6706,22 +6233,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J166" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6746,24 +6274,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J167" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6788,22 +6315,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J168" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6828,22 +6356,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J169" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6868,22 +6397,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J170" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6908,24 +6438,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J171" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6950,22 +6479,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+        <v>34.4</v>
+      </c>
+      <c r="J172" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6990,24 +6520,23 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J173" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7032,24 +6561,23 @@
         <v>-857430.3889339897</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J174" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7076,20 +6604,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7116,20 +6643,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7156,20 +6682,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7196,20 +6721,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7236,20 +6760,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7276,20 +6799,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7316,20 +6838,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7354,22 +6875,21 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7396,20 +6916,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7436,20 +6955,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7476,20 +6994,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7516,20 +7033,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7554,24 +7070,21 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7596,24 +7109,21 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7638,24 +7148,23 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J189" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+        <v>34.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7682,20 +7191,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7722,20 +7230,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7762,20 +7269,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7802,20 +7308,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7842,20 +7347,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7882,20 +7386,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7922,20 +7425,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7962,20 +7464,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8002,20 +7503,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8042,20 +7542,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8082,20 +7581,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8122,20 +7620,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8162,20 +7659,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8202,20 +7698,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8242,20 +7737,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8282,20 +7776,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8322,20 +7815,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8360,22 +7852,21 @@
         <v>-783110.9925339896</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8402,20 +7893,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8440,22 +7930,21 @@
         <v>-783010.9925339896</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8480,22 +7969,21 @@
         <v>-783010.9925339896</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8520,22 +8008,21 @@
         <v>-783010.9925339896</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8562,20 +8049,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8602,20 +8088,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8642,20 +8127,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8682,20 +8166,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8722,20 +8205,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8762,20 +8244,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8802,20 +8283,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8842,20 +8322,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8882,20 +8361,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8922,20 +8400,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8962,20 +8439,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9002,20 +8478,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9042,20 +8517,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9082,20 +8556,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9122,20 +8595,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9162,20 +8634,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9202,20 +8673,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9242,20 +8712,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9282,20 +8751,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9322,20 +8790,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9362,20 +8829,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9402,20 +8868,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9442,20 +8907,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9482,20 +8946,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9522,20 +8985,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9562,20 +9024,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9600,22 +9061,21 @@
         <v>-640612.3043339896</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1.003746355685131</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9640,22 +9100,15 @@
         <v>-640602.3043339896</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9682,20 +9135,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9722,20 +9168,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9762,20 +9201,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9802,20 +9234,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9842,20 +9267,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9882,20 +9300,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9922,20 +9333,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9962,20 +9366,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10002,20 +9399,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10042,20 +9432,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10082,20 +9465,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10122,20 +9498,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10162,20 +9531,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10202,20 +9564,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10242,20 +9597,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10282,20 +9630,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10322,20 +9663,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10362,20 +9696,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10402,20 +9729,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10442,20 +9762,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10482,20 +9795,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10522,20 +9828,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10562,20 +9861,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10602,20 +9894,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10642,20 +9927,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10682,20 +9960,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10722,20 +9993,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10762,20 +10026,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10802,18 +10059,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L268" t="n">
+        <v>1</v>
       </c>
       <c r="M268" t="inlineStr"/>
-      <c r="N268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10840,16 +10092,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10876,16 +10125,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10912,16 +10158,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10948,16 +10191,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10984,16 +10224,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11020,16 +10257,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11056,16 +10290,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11090,18 +10321,15 @@
         <v>-638541.7577339896</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11126,18 +10354,15 @@
         <v>-638541.7577339896</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11162,18 +10387,15 @@
         <v>-638541.7577339896</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11198,18 +10420,15 @@
         <v>-638521.7577339896</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11234,18 +10453,15 @@
         <v>-638521.7577339896</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11270,18 +10486,15 @@
         <v>-638666.7577339896</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11306,18 +10519,15 @@
         <v>-638648.7577339896</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11342,18 +10552,15 @@
         <v>-639771.7577339896</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11378,18 +10585,15 @@
         <v>-631761.7577339896</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11414,18 +10618,15 @@
         <v>-631761.7577339896</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11450,18 +10651,15 @@
         <v>-632972.7577339896</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11486,18 +10684,15 @@
         <v>-632972.7577339896</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11522,18 +10717,15 @@
         <v>-621620.7577339896</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11558,18 +10750,15 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11596,16 +10785,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11632,16 +10818,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11666,18 +10849,15 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11702,18 +10882,15 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11738,18 +10915,15 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11774,18 +10948,15 @@
         <v>-611732.7577339896</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11810,18 +10981,15 @@
         <v>-611732.7577339896</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11846,18 +11014,15 @@
         <v>-611732.7577339896</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11882,18 +11047,15 @@
         <v>-612873.7577339896</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11918,18 +11080,15 @@
         <v>-612873.7577339896</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11954,18 +11113,15 @@
         <v>-612873.7577339896</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11990,18 +11146,15 @@
         <v>-612734.7577339896</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12026,18 +11179,15 @@
         <v>-612734.7577339896</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12064,16 +11214,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>1</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12100,16 +11247,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>1</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12136,16 +11280,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12172,16 +11313,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>1</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12208,16 +11346,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>1</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12244,16 +11379,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>1</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12280,16 +11412,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12316,16 +11445,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>1</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12352,16 +11478,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>1</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12388,16 +11511,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12424,16 +11544,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12460,16 +11577,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12496,16 +11610,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12532,16 +11643,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12568,16 +11676,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>1</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12604,16 +11709,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>1</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12638,18 +11740,15 @@
         <v>-546237.1571339896</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12674,18 +11773,15 @@
         <v>-546237.1571339896</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12710,18 +11806,15 @@
         <v>-539341.3666339896</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12746,18 +11839,15 @@
         <v>-539891.3666339896</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12782,18 +11872,15 @@
         <v>-536998.6316339896</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12818,18 +11905,15 @@
         <v>-537013.5916339896</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12854,18 +11938,15 @@
         <v>-536485.4279339896</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12890,18 +11971,15 @@
         <v>-536485.4279339896</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12926,18 +12004,15 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12962,18 +12037,15 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12998,18 +12070,15 @@
         <v>-444309.5473339895</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13034,20 +12103,17 @@
         <v>-457511.1271339895</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-29 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,10 +1804,14 @@
         <v>-895559.1712339899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>34.1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1840,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1883,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2695,10 +2711,14 @@
         <v>-920726.6119339899</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2728,11 +2748,19 @@
         <v>-920726.6119339899</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2789,17 @@
         <v>-920726.6119339899</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +2894,14 @@
         <v>-920764.6115339899</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>34.1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2896,8 +2934,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +2973,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3025,7 +3075,7 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3141,7 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3174,7 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3159,8 +3209,12 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3190,11 +3244,19 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3225,9 +3287,17 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3258,8 +3328,12 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3291,9 +3365,17 @@
       <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3404,19 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3357,8 +3447,12 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3388,11 +3482,17 @@
         <v>-907572.5987006598</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3521,17 @@
         <v>-907325.4637006598</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3456,9 +3562,17 @@
       <c r="H93" t="n">
         <v>1</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3601,17 @@
         <v>-952844.6608006598</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3522,9 +3642,17 @@
       <c r="H95" t="n">
         <v>1</v>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3555,9 +3683,17 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3722,19 @@
         <v>-952296.5786006599</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3763,19 @@
         <v>-950781.5823006599</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3804,19 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3687,9 +3847,17 @@
       <c r="H100" t="n">
         <v>1</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3886,19 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3927,19 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3968,19 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4009,19 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4050,19 @@
         <v>-953326.9823006599</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3885,9 +4093,17 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3918,9 +4134,17 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3951,9 +4175,17 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3984,9 +4216,17 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4017,9 +4257,17 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4050,9 +4298,17 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4083,9 +4339,17 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4378,19 @@
         <v>-952991.0090006599</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4419,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4460,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4501,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4542,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,15 +4583,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>34.3</v>
       </c>
       <c r="J118" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>34.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,17 +4624,17 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>34.3</v>
       </c>
       <c r="J119" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4357,17 +4665,17 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>34.3</v>
       </c>
       <c r="J120" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4398,15 +4706,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>34.3</v>
       </c>
       <c r="J121" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>34.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4435,17 +4747,17 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>34.3</v>
       </c>
       <c r="J122" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4476,17 +4788,17 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>34.3</v>
       </c>
       <c r="J123" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4517,15 +4829,19 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>34.3</v>
       </c>
       <c r="J124" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>34.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4554,17 +4870,17 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>34.3</v>
       </c>
       <c r="J125" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4595,17 +4911,17 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>34.3</v>
       </c>
       <c r="J126" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4636,13 +4952,13 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>34.2</v>
       </c>
       <c r="J127" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4677,13 +4993,13 @@
         <v>-995425.1501006598</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>34.2</v>
       </c>
       <c r="J128" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4718,13 +5034,13 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>34.5</v>
       </c>
       <c r="J129" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4759,13 +5075,13 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>34.3</v>
       </c>
       <c r="J130" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4800,13 +5116,13 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>34.3</v>
       </c>
       <c r="J131" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4841,13 +5157,13 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>34.3</v>
       </c>
       <c r="J132" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4882,13 +5198,13 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>34.3</v>
       </c>
       <c r="J133" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4923,13 +5239,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>34.3</v>
       </c>
       <c r="J134" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4964,13 +5280,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>34.2</v>
       </c>
       <c r="J135" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5005,13 +5321,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>34.2</v>
       </c>
       <c r="J136" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5046,13 +5362,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>34.2</v>
       </c>
       <c r="J137" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5087,13 +5403,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>34.2</v>
       </c>
       <c r="J138" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5128,13 +5444,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>34.2</v>
       </c>
       <c r="J139" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5169,13 +5485,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>34.2</v>
       </c>
       <c r="J140" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5210,13 +5526,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>34.2</v>
       </c>
       <c r="J141" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5251,13 +5567,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>34.2</v>
       </c>
       <c r="J142" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5292,13 +5608,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>34.2</v>
       </c>
       <c r="J143" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5333,13 +5649,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>34.2</v>
       </c>
       <c r="J144" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5374,13 +5690,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>34.2</v>
       </c>
       <c r="J145" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5415,13 +5731,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>34.2</v>
       </c>
       <c r="J146" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5456,13 +5772,13 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>34.2</v>
       </c>
       <c r="J147" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5497,13 +5813,13 @@
         <v>-985812.1978006598</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>34.2</v>
       </c>
       <c r="J148" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5538,13 +5854,13 @@
         <v>-985812.1978006598</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>34.4</v>
       </c>
       <c r="J149" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5579,13 +5895,13 @@
         <v>-985854.8668006598</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>34.4</v>
       </c>
       <c r="J150" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5620,13 +5936,11 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5661,13 +5975,13 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>34.4</v>
       </c>
       <c r="J152" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5702,13 +6016,11 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5743,13 +6055,13 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>34.3</v>
       </c>
       <c r="J154" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5784,13 +6096,13 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>34.3</v>
       </c>
       <c r="J155" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5825,13 +6137,13 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>34.4</v>
       </c>
       <c r="J156" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5866,13 +6178,13 @@
         <v>-861226.8294339897</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>34.4</v>
       </c>
       <c r="J157" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5907,13 +6219,11 @@
         <v>-867181.8294339897</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5948,13 +6258,11 @@
         <v>-866958.9294339897</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5989,13 +6297,11 @@
         <v>-865557.7000339897</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6030,13 +6336,11 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>34.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6075,7 +6379,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6110,13 +6414,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>34.4</v>
       </c>
       <c r="J163" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6151,13 +6455,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>34.4</v>
       </c>
       <c r="J164" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6192,13 +6496,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>34.4</v>
       </c>
       <c r="J165" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6233,13 +6537,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>34.4</v>
       </c>
       <c r="J166" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6274,13 +6578,11 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6315,13 +6617,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>34.4</v>
       </c>
       <c r="J168" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6356,13 +6658,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>34.4</v>
       </c>
       <c r="J169" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6397,13 +6699,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>34.4</v>
       </c>
       <c r="J170" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6438,13 +6740,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>34.4</v>
       </c>
       <c r="J171" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6479,13 +6781,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>34.4</v>
       </c>
       <c r="J172" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6520,13 +6822,13 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>34.4</v>
       </c>
       <c r="J173" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6561,13 +6863,13 @@
         <v>-857430.3889339897</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>34.4</v>
       </c>
       <c r="J174" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6606,7 +6908,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6645,7 +6947,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6680,11 +6982,13 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J177" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6719,11 +7023,13 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J178" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6758,11 +7064,13 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J179" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6797,11 +7105,13 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J180" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6836,11 +7146,13 @@
         <v>-857267.4334339896</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J181" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6877,9 +7189,11 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J182" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6914,11 +7228,13 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J183" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6957,7 +7273,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6992,11 +7308,13 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J185" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7031,11 +7349,13 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J186" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7070,11 +7390,13 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J187" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7109,11 +7431,13 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J188" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7148,13 +7472,13 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>34.4</v>
       </c>
       <c r="J189" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7193,7 +7517,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7232,7 +7556,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7271,7 +7595,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7310,7 +7634,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7345,11 +7669,13 @@
         <v>-757131.4708339897</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J194" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7384,11 +7710,13 @@
         <v>-757131.4708339897</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J195" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7423,11 +7751,13 @@
         <v>-756759.1327339896</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J196" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7462,11 +7792,13 @@
         <v>-757112.8877339896</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J197" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7505,7 +7837,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7540,11 +7872,13 @@
         <v>-757112.8877339896</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J199" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7583,7 +7917,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7622,7 +7956,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7661,7 +7995,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7700,7 +8034,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7739,7 +8073,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7778,7 +8112,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7817,7 +8151,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7852,11 +8186,11 @@
         <v>-783110.9925339896</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7895,7 +8229,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7930,11 +8264,11 @@
         <v>-783010.9925339896</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7969,11 +8303,11 @@
         <v>-783010.9925339896</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8008,11 +8342,11 @@
         <v>-783010.9925339896</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8051,7 +8385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8090,7 +8424,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8129,7 +8463,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8168,7 +8502,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8207,7 +8541,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8246,7 +8580,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8285,7 +8619,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8324,7 +8658,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8363,7 +8697,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8402,7 +8736,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8441,7 +8775,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8480,7 +8814,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8519,7 +8853,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8558,7 +8892,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8597,7 +8931,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8636,7 +8970,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8675,7 +9009,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8714,7 +9048,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8753,7 +9087,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8792,7 +9126,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8831,7 +9165,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8870,7 +9204,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8909,7 +9243,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8948,7 +9282,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8987,7 +9321,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9026,7 +9360,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9061,19 +9395,19 @@
         <v>-640612.3043339896</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
-        <v>1.003746355685131</v>
+        <v>1</v>
       </c>
       <c r="M238" t="inlineStr"/>
     </row>
@@ -9100,11 +9434,17 @@
         <v>-640602.3043339896</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9136,8 +9476,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +9515,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +9554,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +9593,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +9632,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9301,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +9710,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9367,8 +9749,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9400,8 +9788,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9433,8 +9827,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +9866,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +9905,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +9944,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +9983,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +10022,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +10061,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +10100,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +10139,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +10178,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +10217,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +10256,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +10295,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +10334,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +10373,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +10412,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +10451,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +10490,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +10529,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +10568,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +10607,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +10646,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +10685,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10192,8 +10724,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10225,8 +10763,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10258,8 +10802,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10291,8 +10841,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10321,11 +10877,17 @@
         <v>-638541.7577339896</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +10916,17 @@
         <v>-638541.7577339896</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10387,11 +10955,17 @@
         <v>-638541.7577339896</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10420,11 +10994,17 @@
         <v>-638521.7577339896</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10453,11 +11033,17 @@
         <v>-638521.7577339896</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10486,11 +11072,17 @@
         <v>-638666.7577339896</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10519,11 +11111,17 @@
         <v>-638648.7577339896</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10552,11 +11150,17 @@
         <v>-639771.7577339896</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10585,11 +11189,17 @@
         <v>-631761.7577339896</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10618,11 +11228,17 @@
         <v>-631761.7577339896</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10651,11 +11267,17 @@
         <v>-632972.7577339896</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +11306,17 @@
         <v>-632972.7577339896</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10717,11 +11345,17 @@
         <v>-621620.7577339896</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10750,11 +11384,17 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +11426,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +11465,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10849,11 +11501,17 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10882,11 +11540,17 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10915,11 +11579,17 @@
         <v>-621732.7577339896</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10948,11 +11618,17 @@
         <v>-611732.7577339896</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10981,11 +11657,17 @@
         <v>-611732.7577339896</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11014,11 +11696,17 @@
         <v>-611732.7577339896</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11047,11 +11735,17 @@
         <v>-612873.7577339896</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11080,11 +11774,17 @@
         <v>-612873.7577339896</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11113,11 +11813,17 @@
         <v>-612873.7577339896</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11146,11 +11852,17 @@
         <v>-612734.7577339896</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11179,11 +11891,17 @@
         <v>-612734.7577339896</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11215,8 +11933,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11248,8 +11972,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11281,8 +12011,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +12050,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11347,8 +12089,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11380,8 +12128,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11413,8 +12167,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11446,8 +12206,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11479,8 +12245,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11512,8 +12284,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11545,8 +12323,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11578,8 +12362,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11611,8 +12401,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11644,8 +12440,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11677,8 +12479,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11710,8 +12518,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11740,11 +12554,17 @@
         <v>-546237.1571339896</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11773,11 +12593,17 @@
         <v>-546237.1571339896</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11806,11 +12632,17 @@
         <v>-539341.3666339896</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11839,11 +12671,17 @@
         <v>-539891.3666339896</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11872,11 +12710,17 @@
         <v>-536998.6316339896</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11905,11 +12749,17 @@
         <v>-537013.5916339896</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11938,11 +12788,17 @@
         <v>-536485.4279339896</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11971,13 +12827,19 @@
         <v>-536485.4279339896</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L326" t="n">
-        <v>1</v>
+        <v>1.021315789473684</v>
       </c>
       <c r="M326" t="inlineStr"/>
     </row>
@@ -12004,7 +12866,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12037,7 +12899,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12070,7 +12932,7 @@
         <v>-444309.5473339895</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12103,7 +12965,7 @@
         <v>-457511.1271339895</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12114,6 +12976,6 @@
       <c r="M330" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-29 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,7 +1243,7 @@
         <v>-828199.6374339899</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1804,14 +1804,10 @@
         <v>-895559.1712339899</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1844,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2282,7 +2266,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2315,7 +2299,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2348,7 +2332,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2447,7 +2431,7 @@
         <v>-868952.2812339899</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2513,7 +2497,7 @@
         <v>-868971.2812339899</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2711,14 +2695,10 @@
         <v>-920726.6119339899</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2748,19 +2728,11 @@
         <v>-920726.6119339899</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2792,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2894,14 +2860,10 @@
         <v>-920764.6115339899</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2934,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2973,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3207,14 +3157,10 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3244,19 +3190,11 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3285,19 +3223,11 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3326,14 +3256,10 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3363,19 +3289,11 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3404,19 +3322,11 @@
         <v>-912293.9110339899</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3445,14 +3355,10 @@
         <v>-906247.5987006598</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3485,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3560,755 +3454,615 @@
         <v>-952844.6608006598</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-952844.6608006598</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>29.669</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-952844.6608006598</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1139.5821</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-951705.0787006598</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>591.4999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-952296.5786006599</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1514.9963</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-950781.5823006599</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2545.4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>388.6273</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>51439.3898</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>79.39149999999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>138.807</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>656.0948</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>70.9909</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>87.3519</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-953326.9823006599</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>171.5309</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-953155.4514006599</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>90.2754</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-953245.7268006599</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>79.55800000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-953245.7268006599</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>41.7032</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-953245.7268006599</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>113.4529</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-953132.2739006599</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>11</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-952844.6608006598</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>29.669</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-952844.6608006598</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C96" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D96" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1139.5821</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-951705.0787006598</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J96" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F97" t="n">
-        <v>591.4999</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-952296.5786006599</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1514.9963</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-950781.5823006599</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E99" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2545.4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D100" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F100" t="n">
-        <v>388.6273</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F101" t="n">
-        <v>51439.3898</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>79.39149999999999</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>138.807</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F104" t="n">
-        <v>656.0948</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>70.9909</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>87.3519</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-953326.9823006599</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F107" t="n">
-        <v>171.5309</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-953155.4514006599</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F108" t="n">
-        <v>90.2754</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-953245.7268006599</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>79.55800000000001</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-953245.7268006599</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>41.7032</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-953245.7268006599</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>113.4529</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-953132.2739006599</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +4091,9 @@
         <v>-953855.7259006599</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>34.2</v>
       </c>
@@ -4378,11 +4130,9 @@
         <v>-952991.0090006599</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>34.2</v>
       </c>
@@ -4419,11 +4169,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>34.2</v>
       </c>
@@ -4460,11 +4208,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>34.2</v>
       </c>
@@ -4501,11 +4247,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>34.2</v>
       </c>
@@ -4542,11 +4286,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>34.2</v>
       </c>
@@ -4583,11 +4325,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>34.2</v>
       </c>
@@ -4624,11 +4364,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>34.2</v>
       </c>
@@ -4665,11 +4403,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>34.2</v>
       </c>
@@ -4706,11 +4442,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>34.2</v>
       </c>
@@ -4747,11 +4481,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>34.2</v>
       </c>
@@ -4788,11 +4520,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>34.2</v>
       </c>
@@ -4829,11 +4559,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>34.2</v>
       </c>
@@ -4870,11 +4598,9 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>34.2</v>
       </c>
@@ -4911,11 +4637,9 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>34.2</v>
       </c>
@@ -4952,11 +4676,9 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>34.2</v>
       </c>
@@ -4993,11 +4715,9 @@
         <v>-995425.1501006598</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>34.2</v>
       </c>
@@ -5034,11 +4754,9 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>34.2</v>
       </c>
@@ -5075,11 +4793,9 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>34.2</v>
       </c>
@@ -5116,11 +4832,9 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>34.2</v>
       </c>
@@ -5157,11 +4871,9 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>34.2</v>
       </c>
@@ -5198,11 +4910,9 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>34.2</v>
       </c>
@@ -5239,11 +4949,9 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>34.2</v>
       </c>
@@ -5280,11 +4988,9 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>34.2</v>
       </c>
@@ -5321,11 +5027,9 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>34.2</v>
       </c>
@@ -5362,11 +5066,9 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>34.2</v>
       </c>
@@ -5403,11 +5105,9 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>34.2</v>
       </c>
@@ -5895,11 +5595,9 @@
         <v>-985854.8668006598</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>34.2</v>
       </c>
@@ -5936,9 +5634,11 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J151" t="n">
         <v>34.2</v>
       </c>
@@ -5975,11 +5675,9 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>34.2</v>
       </c>
@@ -6055,11 +5753,9 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>34.2</v>
       </c>
@@ -6137,11 +5833,9 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>34.2</v>
       </c>
@@ -6178,11 +5872,9 @@
         <v>-861226.8294339897</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>34.2</v>
       </c>
@@ -6414,11 +6106,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>34.2</v>
       </c>
@@ -6455,11 +6145,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>34.2</v>
       </c>
@@ -6496,11 +6184,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>34.2</v>
       </c>
@@ -6537,11 +6223,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>34.2</v>
       </c>
@@ -6617,11 +6301,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>34.2</v>
       </c>
@@ -6658,11 +6340,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>34.2</v>
       </c>
@@ -6699,11 +6379,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>34.2</v>
       </c>
@@ -6740,11 +6418,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>34.2</v>
       </c>
@@ -6781,11 +6457,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>34.2</v>
       </c>
@@ -6822,11 +6496,9 @@
         <v>-866096.7000339897</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>34.2</v>
       </c>
@@ -6863,11 +6535,9 @@
         <v>-857430.3889339897</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>34.2</v>
       </c>
@@ -6982,11 +6652,9 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>34.2</v>
       </c>
@@ -7023,11 +6691,9 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>34.2</v>
       </c>
@@ -7064,11 +6730,9 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>34.2</v>
       </c>
@@ -7105,11 +6769,9 @@
         <v>-857449.2174339896</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>34.2</v>
       </c>
@@ -7146,11 +6808,9 @@
         <v>-857267.4334339896</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>34.2</v>
       </c>
@@ -7187,11 +6847,9 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>34.2</v>
       </c>
@@ -7228,11 +6886,9 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>34.2</v>
       </c>
@@ -7308,11 +6964,9 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>34.2</v>
       </c>
@@ -7349,11 +7003,9 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>34.2</v>
       </c>
@@ -7390,11 +7042,9 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>34.2</v>
       </c>
@@ -7431,21 +7081,19 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>34.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>34.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>1.000847953216374</v>
       </c>
       <c r="M188" t="inlineStr"/>
     </row>
@@ -7472,19 +7120,11 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J189" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7513,17 +7153,11 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7555,14 +7189,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7594,14 +7222,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7633,14 +7255,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7669,19 +7285,11 @@
         <v>-757131.4708339897</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J194" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7710,19 +7318,11 @@
         <v>-757131.4708339897</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J195" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7751,19 +7351,11 @@
         <v>-756759.1327339896</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J196" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7792,19 +7384,11 @@
         <v>-757112.8877339896</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J197" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7836,14 +7420,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7872,19 +7450,11 @@
         <v>-757112.8877339896</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J199" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7916,14 +7486,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7955,14 +7519,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7994,14 +7552,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8033,14 +7585,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8072,14 +7618,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8111,14 +7651,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8150,14 +7684,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8189,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8228,14 +7750,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8267,14 +7783,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8306,14 +7816,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8345,14 +7849,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8384,14 +7882,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8423,14 +7915,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8462,14 +7948,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8501,14 +7981,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8540,14 +8014,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8579,14 +8047,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8618,14 +8080,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8657,14 +8113,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8696,14 +8146,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8735,14 +8179,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8774,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8813,14 +8245,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8852,14 +8278,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8891,14 +8311,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8930,14 +8344,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8969,14 +8377,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9008,14 +8410,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9047,14 +8443,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9086,14 +8476,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9125,14 +8509,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9164,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9203,14 +8575,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9242,14 +8608,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9281,14 +8641,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9320,14 +8674,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9359,14 +8707,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9398,14 +8740,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9437,14 +8773,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9476,14 +8806,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9515,14 +8839,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9554,14 +8872,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9593,14 +8905,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9632,14 +8938,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9671,14 +8971,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9710,14 +9004,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9749,14 +9037,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9788,14 +9070,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9827,14 +9103,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9866,14 +9136,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9905,14 +9169,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9944,14 +9202,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9983,14 +9235,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10022,14 +9268,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10061,14 +9301,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10100,14 +9334,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10139,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10178,14 +9400,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10217,14 +9433,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10256,14 +9466,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10295,14 +9499,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10334,14 +9532,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10373,14 +9565,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10412,14 +9598,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10451,14 +9631,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10490,14 +9664,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10529,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10568,14 +9730,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10607,14 +9763,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10646,14 +9796,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10685,14 +9829,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10724,14 +9862,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10763,14 +9895,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10802,14 +9928,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10841,14 +9961,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10880,14 +9994,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10919,14 +10027,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10958,14 +10060,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10997,14 +10093,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11036,14 +10126,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11075,14 +10159,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11114,14 +10192,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11153,14 +10225,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11192,14 +10258,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11231,14 +10291,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11270,14 +10324,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11309,14 +10357,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11348,14 +10390,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11387,14 +10423,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11426,14 +10456,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11465,14 +10489,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11504,14 +10522,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11543,14 +10555,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11582,14 +10588,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11621,14 +10621,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11660,14 +10654,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11699,14 +10687,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11738,14 +10720,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11777,14 +10753,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11816,14 +10786,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11855,14 +10819,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11894,14 +10852,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11933,14 +10885,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11972,14 +10918,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12011,14 +10951,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12050,14 +10984,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12089,14 +11017,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12128,14 +11050,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12167,14 +11083,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12206,14 +11116,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12245,14 +11149,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12284,14 +11182,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12323,14 +11215,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12362,14 +11248,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12401,14 +11281,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12440,14 +11314,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12479,14 +11347,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12518,14 +11380,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12557,14 +11413,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12596,14 +11446,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12635,14 +11479,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12674,14 +11512,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12713,14 +11545,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12752,14 +11578,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12791,14 +11611,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12827,19 +11641,13 @@
         <v>-536485.4279339896</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
-        <v>1.021315789473684</v>
+        <v>1</v>
       </c>
       <c r="M326" t="inlineStr"/>
     </row>
@@ -12866,7 +11674,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12899,7 +11707,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12932,7 +11740,7 @@
         <v>-444309.5473339895</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12965,7 +11773,7 @@
         <v>-457511.1271339895</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12976,6 +11784,6 @@
       <c r="M330" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-29 BackTest HDAC.xlsx
@@ -1243,7 +1243,7 @@
         <v>-828199.6374339899</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-868952.2812339899</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-868971.2812339899</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4052,9 +4052,11 @@
         <v>-953132.2739006599</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J111" t="n">
         <v>34.2</v>
       </c>
@@ -4364,9 +4366,11 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J119" t="n">
         <v>34.2</v>
       </c>
@@ -4403,9 +4407,11 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J120" t="n">
         <v>34.2</v>
       </c>
@@ -4442,9 +4448,11 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J121" t="n">
         <v>34.2</v>
       </c>
@@ -4481,9 +4489,11 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J122" t="n">
         <v>34.2</v>
       </c>
@@ -4520,9 +4530,11 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J123" t="n">
         <v>34.2</v>
       </c>
@@ -4559,9 +4571,11 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J124" t="n">
         <v>34.2</v>
       </c>
@@ -4598,9 +4612,11 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J125" t="n">
         <v>34.2</v>
       </c>
@@ -4637,9 +4653,11 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J126" t="n">
         <v>34.2</v>
       </c>
@@ -4676,9 +4694,11 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J127" t="n">
         <v>34.2</v>
       </c>
@@ -4715,9 +4735,11 @@
         <v>-995425.1501006598</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J128" t="n">
         <v>34.2</v>
       </c>
@@ -4754,9 +4776,11 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J129" t="n">
         <v>34.2</v>
       </c>
@@ -4793,9 +4817,11 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J130" t="n">
         <v>34.2</v>
       </c>
@@ -4832,9 +4858,11 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J131" t="n">
         <v>34.2</v>
       </c>
@@ -4871,9 +4899,11 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J132" t="n">
         <v>34.2</v>
       </c>
@@ -4910,9 +4940,11 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J133" t="n">
         <v>34.2</v>
       </c>
@@ -4949,9 +4981,11 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J134" t="n">
         <v>34.2</v>
       </c>
@@ -4988,9 +5022,11 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J135" t="n">
         <v>34.2</v>
       </c>
@@ -5027,9 +5063,11 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J136" t="n">
         <v>34.2</v>
       </c>
@@ -5066,9 +5104,11 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J137" t="n">
         <v>34.2</v>
       </c>
@@ -5105,9 +5145,11 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J138" t="n">
         <v>34.2</v>
       </c>
@@ -5595,9 +5637,11 @@
         <v>-985854.8668006598</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J150" t="n">
         <v>34.2</v>
       </c>
@@ -5675,9 +5719,11 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J152" t="n">
         <v>34.2</v>
       </c>
@@ -5714,9 +5760,11 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J153" t="n">
         <v>34.2</v>
       </c>
@@ -5753,9 +5801,11 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J154" t="n">
         <v>34.2</v>
       </c>
@@ -5833,9 +5883,11 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J156" t="n">
         <v>34.2</v>
       </c>
@@ -7081,7 +7133,7 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
@@ -7089,11 +7141,11 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.000847953216374</v>
+        <v>1</v>
       </c>
       <c r="M188" t="inlineStr"/>
     </row>
@@ -7120,11 +7172,17 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7153,11 +7211,17 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +7292,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +7331,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +7370,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7321,8 +7409,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +7448,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7487,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +7526,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +7565,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +7604,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +7643,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +7682,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +7721,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +7760,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +7799,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +7838,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7717,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +7916,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7783,8 +7955,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7816,8 +7994,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8033,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8072,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +8111,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +8150,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7981,8 +8189,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8014,8 +8228,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8047,8 +8267,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +8306,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8113,8 +8345,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8146,8 +8384,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8179,8 +8423,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8212,8 +8462,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8245,8 +8501,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8278,8 +8540,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +8579,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8344,8 +8618,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8377,8 +8657,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8410,8 +8696,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8443,8 +8735,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8476,8 +8774,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8509,8 +8813,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +8852,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +8891,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +8930,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8641,8 +8969,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +9008,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +9047,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +9086,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +9125,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +9164,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +9203,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8872,8 +9242,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8905,8 +9281,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8938,8 +9320,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8971,8 +9359,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +9398,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9037,8 +9437,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9070,8 +9476,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9103,8 +9515,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9136,8 +9554,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +9593,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +9632,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +9710,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9301,8 +9749,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +9788,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9367,8 +9827,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9400,8 +9866,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9433,8 +9905,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +9944,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +9983,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +10022,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +10061,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +10100,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +10139,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +10178,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +10217,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +10256,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +10295,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +10334,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +10373,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +10412,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +10451,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +10490,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +10529,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +10568,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +10607,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +10646,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +10685,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +10724,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +10763,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10192,8 +10802,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10225,8 +10841,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10258,8 +10880,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10291,8 +10919,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10324,8 +10958,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10357,8 +10997,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10390,8 +11036,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10423,8 +11075,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10456,8 +11114,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10489,8 +11153,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10522,8 +11192,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10555,8 +11231,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10588,8 +11270,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10621,8 +11309,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10654,8 +11348,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10687,8 +11387,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10720,8 +11426,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10753,8 +11465,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +11504,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +11543,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11582,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +11621,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +11660,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10951,8 +11699,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +11738,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +11777,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +11816,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11083,8 +11855,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11116,8 +11894,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +11933,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11182,8 +11972,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11215,8 +12011,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11248,8 +12050,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11281,8 +12089,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +12128,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11347,8 +12167,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11380,8 +12206,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11413,8 +12245,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11446,8 +12284,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11479,8 +12323,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11512,8 +12362,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11545,8 +12401,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11578,8 +12440,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11611,8 +12479,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11644,8 +12518,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11674,13 +12554,19 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L327" t="n">
-        <v>1</v>
+        <v>1.024239766081871</v>
       </c>
       <c r="M327" t="inlineStr"/>
     </row>
@@ -11707,7 +12593,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11740,7 +12626,7 @@
         <v>-444309.5473339895</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11773,7 +12659,7 @@
         <v>-457511.1271339895</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
